--- a/dcd_opamp_stability_pre_tsmc2p_meas.xlsx
+++ b/dcd_opamp_stability_pre_tsmc2p_meas.xlsx
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>87.2818</v>
+        <v>87.5184</v>
       </c>
       <c r="S2">
-        <v>24.3623</v>
+        <v>25.4744</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1221,10 +1221,10 @@
         <v>46</v>
       </c>
       <c r="R3">
-        <v>90.8652</v>
+        <v>91.3415</v>
       </c>
       <c r="S3">
-        <v>26.4604</v>
+        <v>27.9059</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1280,10 +1280,10 @@
         <v>46</v>
       </c>
       <c r="R4">
-        <v>87.0051</v>
+        <v>87.3524</v>
       </c>
       <c r="S4">
-        <v>24.7213</v>
+        <v>25.9672</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1339,10 +1339,10 @@
         <v>59</v>
       </c>
       <c r="R5">
-        <v>87.71080000000001</v>
+        <v>87.67919999999999</v>
       </c>
       <c r="S5">
-        <v>23.593</v>
+        <v>24.4717</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1398,10 +1398,10 @@
         <v>59</v>
       </c>
       <c r="R6">
-        <v>87.0342</v>
+        <v>87.29770000000001</v>
       </c>
       <c r="S6">
-        <v>23.798</v>
+        <v>24.5417</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1457,10 +1457,10 @@
         <v>59</v>
       </c>
       <c r="R7">
-        <v>87.98569999999999</v>
+        <v>87.9143</v>
       </c>
       <c r="S7">
-        <v>23.8886</v>
+        <v>25.1468</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1516,10 +1516,10 @@
         <v>59</v>
       </c>
       <c r="R8">
-        <v>87.0423</v>
+        <v>87.4828</v>
       </c>
       <c r="S8">
-        <v>23.507</v>
+        <v>25.5037</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1575,10 +1575,10 @@
         <v>59</v>
       </c>
       <c r="R9">
-        <v>90.7863</v>
+        <v>91.3001</v>
       </c>
       <c r="S9">
-        <v>26.3771</v>
+        <v>27.4835</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1634,10 +1634,10 @@
         <v>59</v>
       </c>
       <c r="R10">
-        <v>87.8702</v>
+        <v>87.8895</v>
       </c>
       <c r="S10">
-        <v>25.7448</v>
+        <v>26.1185</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1693,10 +1693,10 @@
         <v>46</v>
       </c>
       <c r="R11">
-        <v>91.9143</v>
+        <v>92.239</v>
       </c>
       <c r="S11">
-        <v>27.1846</v>
+        <v>28.5717</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1752,10 +1752,10 @@
         <v>46</v>
       </c>
       <c r="R12">
-        <v>91.01130000000001</v>
+        <v>91.3008</v>
       </c>
       <c r="S12">
-        <v>27.642</v>
+        <v>28.9826</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1811,10 +1811,10 @@
         <v>46</v>
       </c>
       <c r="R13">
-        <v>91.8866</v>
+        <v>92.0617</v>
       </c>
       <c r="S13">
-        <v>28.4743</v>
+        <v>29.7742</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1870,10 +1870,10 @@
         <v>46</v>
       </c>
       <c r="R14">
-        <v>88.12430000000001</v>
+        <v>88.26990000000001</v>
       </c>
       <c r="S14">
-        <v>26.1676</v>
+        <v>27.4481</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1929,10 +1929,10 @@
         <v>46</v>
       </c>
       <c r="R15">
-        <v>87.5748</v>
+        <v>87.7945</v>
       </c>
       <c r="S15">
-        <v>25.9637</v>
+        <v>27.1768</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1988,10 +1988,10 @@
         <v>46</v>
       </c>
       <c r="R16">
-        <v>88.4712</v>
+        <v>88.5504</v>
       </c>
       <c r="S16">
-        <v>27.4625</v>
+        <v>28.6812</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2047,10 +2047,10 @@
         <v>59</v>
       </c>
       <c r="R17">
-        <v>86.15009999999999</v>
+        <v>85.9237</v>
       </c>
       <c r="S17">
-        <v>21.4926</v>
+        <v>22.0315</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2106,10 +2106,10 @@
         <v>59</v>
       </c>
       <c r="R18">
-        <v>87.85550000000001</v>
+        <v>87.3729</v>
       </c>
       <c r="S18">
-        <v>22.5414</v>
+        <v>23.2611</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2165,10 +2165,10 @@
         <v>59</v>
       </c>
       <c r="R19">
-        <v>86.2843</v>
+        <v>86.4654</v>
       </c>
       <c r="S19">
-        <v>22.3876</v>
+        <v>23.1743</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2224,10 +2224,10 @@
         <v>59</v>
       </c>
       <c r="R20">
-        <v>85.08710000000001</v>
+        <v>85.51860000000001</v>
       </c>
       <c r="S20">
-        <v>21.4599</v>
+        <v>21.8685</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2283,10 +2283,10 @@
         <v>59</v>
       </c>
       <c r="R21">
-        <v>86.979</v>
+        <v>86.79989999999999</v>
       </c>
       <c r="S21">
-        <v>22.4341</v>
+        <v>23.2675</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2342,10 +2342,10 @@
         <v>59</v>
       </c>
       <c r="R22">
-        <v>85.4864</v>
+        <v>86.2358</v>
       </c>
       <c r="S22">
-        <v>22.6135</v>
+        <v>23.1263</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2401,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="R23">
-        <v>86.15009999999999</v>
+        <v>85.9237</v>
       </c>
       <c r="S23">
-        <v>21.4926</v>
+        <v>22.0315</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2460,10 +2460,10 @@
         <v>46</v>
       </c>
       <c r="R24">
-        <v>87.85550000000001</v>
+        <v>87.3729</v>
       </c>
       <c r="S24">
-        <v>22.5414</v>
+        <v>23.2611</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2519,10 +2519,10 @@
         <v>46</v>
       </c>
       <c r="R25">
-        <v>86.2843</v>
+        <v>86.4654</v>
       </c>
       <c r="S25">
-        <v>22.3876</v>
+        <v>23.1743</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2578,10 +2578,10 @@
         <v>46</v>
       </c>
       <c r="R26">
-        <v>85.08710000000001</v>
+        <v>85.51860000000001</v>
       </c>
       <c r="S26">
-        <v>21.4599</v>
+        <v>21.8685</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2637,10 +2637,10 @@
         <v>46</v>
       </c>
       <c r="R27">
-        <v>86.979</v>
+        <v>86.79989999999999</v>
       </c>
       <c r="S27">
-        <v>22.4341</v>
+        <v>23.2675</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2696,10 +2696,10 @@
         <v>46</v>
       </c>
       <c r="R28">
-        <v>85.4864</v>
+        <v>86.2358</v>
       </c>
       <c r="S28">
-        <v>22.6135</v>
+        <v>23.1263</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2755,10 +2755,10 @@
         <v>59</v>
       </c>
       <c r="R29">
-        <v>86.65989999999999</v>
+        <v>86.1968</v>
       </c>
       <c r="S29">
-        <v>21.9032</v>
+        <v>22.7673</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2814,10 +2814,10 @@
         <v>59</v>
       </c>
       <c r="R30">
-        <v>88.4282</v>
+        <v>87.6857</v>
       </c>
       <c r="S30">
-        <v>22.7956</v>
+        <v>23.933</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2873,10 +2873,10 @@
         <v>59</v>
       </c>
       <c r="R31">
-        <v>86.514</v>
+        <v>86.6966</v>
       </c>
       <c r="S31">
-        <v>22.7772</v>
+        <v>23.8768</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2932,10 +2932,10 @@
         <v>59</v>
       </c>
       <c r="R32">
-        <v>85.5119</v>
+        <v>85.60509999999999</v>
       </c>
       <c r="S32">
-        <v>21.4039</v>
+        <v>22.7302</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2991,10 +2991,10 @@
         <v>59</v>
       </c>
       <c r="R33">
-        <v>87.5324</v>
+        <v>86.9742</v>
       </c>
       <c r="S33">
-        <v>22.1112</v>
+        <v>24.1194</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3050,10 +3050,10 @@
         <v>59</v>
       </c>
       <c r="R34">
-        <v>85.29810000000001</v>
+        <v>86.3647</v>
       </c>
       <c r="S34">
-        <v>22.5443</v>
+        <v>24.0725</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3109,10 +3109,10 @@
         <v>46</v>
       </c>
       <c r="R35">
-        <v>86.65989999999999</v>
+        <v>86.1968</v>
       </c>
       <c r="S35">
-        <v>21.9032</v>
+        <v>22.7673</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3168,10 +3168,10 @@
         <v>46</v>
       </c>
       <c r="R36">
-        <v>88.4282</v>
+        <v>87.6857</v>
       </c>
       <c r="S36">
-        <v>22.7956</v>
+        <v>23.933</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3227,10 +3227,10 @@
         <v>46</v>
       </c>
       <c r="R37">
-        <v>86.514</v>
+        <v>86.6966</v>
       </c>
       <c r="S37">
-        <v>22.7772</v>
+        <v>23.8768</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3286,10 +3286,10 @@
         <v>46</v>
       </c>
       <c r="R38">
-        <v>85.5119</v>
+        <v>85.60509999999999</v>
       </c>
       <c r="S38">
-        <v>21.4039</v>
+        <v>22.7302</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3345,10 +3345,10 @@
         <v>46</v>
       </c>
       <c r="R39">
-        <v>87.5324</v>
+        <v>86.9742</v>
       </c>
       <c r="S39">
-        <v>22.1112</v>
+        <v>24.1194</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3404,10 +3404,10 @@
         <v>46</v>
       </c>
       <c r="R40">
-        <v>85.29810000000001</v>
+        <v>86.3647</v>
       </c>
       <c r="S40">
-        <v>22.5443</v>
+        <v>24.0725</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3463,10 +3463,10 @@
         <v>59</v>
       </c>
       <c r="R41">
-        <v>89.6397</v>
+        <v>90.1965</v>
       </c>
       <c r="S41">
-        <v>24.4669</v>
+        <v>25.5758</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3522,10 +3522,10 @@
         <v>59</v>
       </c>
       <c r="R42">
-        <v>90.8807</v>
+        <v>91.2687</v>
       </c>
       <c r="S42">
-        <v>25.2463</v>
+        <v>26.3349</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3581,10 +3581,10 @@
         <v>59</v>
       </c>
       <c r="R43">
-        <v>89.72539999999999</v>
+        <v>90.37990000000001</v>
       </c>
       <c r="S43">
-        <v>25.48</v>
+        <v>26.6282</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3640,10 +3640,10 @@
         <v>59</v>
       </c>
       <c r="R44">
-        <v>86.08459999999999</v>
+        <v>86.4474</v>
       </c>
       <c r="S44">
-        <v>23.0838</v>
+        <v>23.4647</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3699,10 +3699,10 @@
         <v>59</v>
       </c>
       <c r="R45">
-        <v>87.44280000000001</v>
+        <v>87.5097</v>
       </c>
       <c r="S45">
-        <v>24.4218</v>
+        <v>24.8955</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3758,10 +3758,10 @@
         <v>59</v>
       </c>
       <c r="R46">
-        <v>86.7621</v>
+        <v>86.9986</v>
       </c>
       <c r="S46">
-        <v>24.3396</v>
+        <v>24.6778</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3817,10 +3817,10 @@
         <v>46</v>
       </c>
       <c r="R47">
-        <v>89.6397</v>
+        <v>90.1965</v>
       </c>
       <c r="S47">
-        <v>24.4669</v>
+        <v>25.5758</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3876,10 +3876,10 @@
         <v>46</v>
       </c>
       <c r="R48">
-        <v>90.8807</v>
+        <v>91.2687</v>
       </c>
       <c r="S48">
-        <v>25.2463</v>
+        <v>26.3349</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3935,10 +3935,10 @@
         <v>46</v>
       </c>
       <c r="R49">
-        <v>89.72539999999999</v>
+        <v>90.37990000000001</v>
       </c>
       <c r="S49">
-        <v>25.48</v>
+        <v>26.6282</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3994,10 +3994,10 @@
         <v>46</v>
       </c>
       <c r="R50">
-        <v>86.08459999999999</v>
+        <v>86.4474</v>
       </c>
       <c r="S50">
-        <v>23.0838</v>
+        <v>23.4647</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4053,10 +4053,10 @@
         <v>46</v>
       </c>
       <c r="R51">
-        <v>87.44280000000001</v>
+        <v>87.5097</v>
       </c>
       <c r="S51">
-        <v>24.4218</v>
+        <v>24.8955</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4112,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="R52">
-        <v>86.7621</v>
+        <v>86.9986</v>
       </c>
       <c r="S52">
-        <v>24.3396</v>
+        <v>24.6778</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4171,10 +4171,10 @@
         <v>34</v>
       </c>
       <c r="R53">
-        <v>87.2818</v>
+        <v>87.292</v>
       </c>
       <c r="S53">
-        <v>24.3623</v>
+        <v>25.5036</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4230,10 +4230,10 @@
         <v>46</v>
       </c>
       <c r="R54">
-        <v>90.8652</v>
+        <v>90.7664</v>
       </c>
       <c r="S54">
-        <v>26.4604</v>
+        <v>27.2992</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4289,10 +4289,10 @@
         <v>46</v>
       </c>
       <c r="R55">
-        <v>87.0051</v>
+        <v>87.0783</v>
       </c>
       <c r="S55">
-        <v>24.7213</v>
+        <v>26.0106</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4348,10 +4348,10 @@
         <v>59</v>
       </c>
       <c r="R56">
-        <v>87.71080000000001</v>
+        <v>87.651</v>
       </c>
       <c r="S56">
-        <v>23.593</v>
+        <v>24.494</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4407,10 +4407,10 @@
         <v>59</v>
       </c>
       <c r="R57">
-        <v>87.0342</v>
+        <v>86.8865</v>
       </c>
       <c r="S57">
-        <v>23.798</v>
+        <v>24.2741</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4466,10 +4466,10 @@
         <v>59</v>
       </c>
       <c r="R58">
-        <v>87.98569999999999</v>
+        <v>87.8737</v>
       </c>
       <c r="S58">
-        <v>23.8886</v>
+        <v>24.9707</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4525,10 +4525,10 @@
         <v>59</v>
       </c>
       <c r="R59">
-        <v>87.0423</v>
+        <v>87.057</v>
       </c>
       <c r="S59">
-        <v>23.507</v>
+        <v>24.7922</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4584,10 +4584,10 @@
         <v>59</v>
       </c>
       <c r="R60">
-        <v>90.7863</v>
+        <v>90.37569999999999</v>
       </c>
       <c r="S60">
-        <v>26.3771</v>
+        <v>26.9687</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4643,10 +4643,10 @@
         <v>59</v>
       </c>
       <c r="R61">
-        <v>87.8702</v>
+        <v>87.82850000000001</v>
       </c>
       <c r="S61">
-        <v>25.7448</v>
+        <v>26.7553</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4702,10 +4702,10 @@
         <v>46</v>
       </c>
       <c r="R62">
-        <v>91.9143</v>
+        <v>91.749</v>
       </c>
       <c r="S62">
-        <v>27.1846</v>
+        <v>28.0088</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4761,10 +4761,10 @@
         <v>46</v>
       </c>
       <c r="R63">
-        <v>91.01130000000001</v>
+        <v>90.9491</v>
       </c>
       <c r="S63">
-        <v>27.642</v>
+        <v>28.5651</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4820,10 +4820,10 @@
         <v>46</v>
       </c>
       <c r="R64">
-        <v>91.8866</v>
+        <v>91.7641</v>
       </c>
       <c r="S64">
-        <v>28.4743</v>
+        <v>29.3834</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4879,10 +4879,10 @@
         <v>46</v>
       </c>
       <c r="R65">
-        <v>88.12430000000001</v>
+        <v>88.1468</v>
       </c>
       <c r="S65">
-        <v>26.1676</v>
+        <v>27.4193</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4938,10 +4938,10 @@
         <v>46</v>
       </c>
       <c r="R66">
-        <v>87.5748</v>
+        <v>87.63209999999999</v>
       </c>
       <c r="S66">
-        <v>25.9637</v>
+        <v>27.3522</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4997,10 +4997,10 @@
         <v>46</v>
       </c>
       <c r="R67">
-        <v>88.4712</v>
+        <v>88.4896</v>
       </c>
       <c r="S67">
-        <v>27.4625</v>
+        <v>28.8192</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5056,10 +5056,10 @@
         <v>59</v>
       </c>
       <c r="R68">
-        <v>86.15009999999999</v>
+        <v>86.1015</v>
       </c>
       <c r="S68">
-        <v>21.4926</v>
+        <v>22.2832</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5115,10 +5115,10 @@
         <v>59</v>
       </c>
       <c r="R69">
-        <v>87.85550000000001</v>
+        <v>87.82850000000001</v>
       </c>
       <c r="S69">
-        <v>22.5414</v>
+        <v>23.2199</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5174,10 +5174,10 @@
         <v>59</v>
       </c>
       <c r="R70">
-        <v>86.2843</v>
+        <v>86.2313</v>
       </c>
       <c r="S70">
-        <v>22.3876</v>
+        <v>23.3567</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5233,10 +5233,10 @@
         <v>59</v>
       </c>
       <c r="R71">
-        <v>85.08710000000001</v>
+        <v>85.01649999999999</v>
       </c>
       <c r="S71">
-        <v>21.4599</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5292,10 +5292,10 @@
         <v>59</v>
       </c>
       <c r="R72">
-        <v>86.979</v>
+        <v>87.0034</v>
       </c>
       <c r="S72">
-        <v>22.4341</v>
+        <v>22.6605</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5351,10 +5351,10 @@
         <v>59</v>
       </c>
       <c r="R73">
-        <v>85.4864</v>
+        <v>85.2719</v>
       </c>
       <c r="S73">
-        <v>22.6135</v>
+        <v>23.2102</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5410,10 +5410,10 @@
         <v>46</v>
       </c>
       <c r="R74">
-        <v>86.15009999999999</v>
+        <v>86.1015</v>
       </c>
       <c r="S74">
-        <v>21.4926</v>
+        <v>22.2832</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5469,10 +5469,10 @@
         <v>46</v>
       </c>
       <c r="R75">
-        <v>87.85550000000001</v>
+        <v>87.82850000000001</v>
       </c>
       <c r="S75">
-        <v>22.5414</v>
+        <v>23.2199</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5528,10 +5528,10 @@
         <v>46</v>
       </c>
       <c r="R76">
-        <v>86.2843</v>
+        <v>86.2313</v>
       </c>
       <c r="S76">
-        <v>22.3876</v>
+        <v>23.3567</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5587,10 +5587,10 @@
         <v>46</v>
       </c>
       <c r="R77">
-        <v>85.08710000000001</v>
+        <v>85.01649999999999</v>
       </c>
       <c r="S77">
-        <v>21.4599</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5646,10 +5646,10 @@
         <v>46</v>
       </c>
       <c r="R78">
-        <v>86.979</v>
+        <v>87.0034</v>
       </c>
       <c r="S78">
-        <v>22.4341</v>
+        <v>22.6605</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5705,10 +5705,10 @@
         <v>46</v>
       </c>
       <c r="R79">
-        <v>85.4864</v>
+        <v>85.2719</v>
       </c>
       <c r="S79">
-        <v>22.6135</v>
+        <v>23.2102</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5764,10 +5764,10 @@
         <v>59</v>
       </c>
       <c r="R80">
-        <v>86.65989999999999</v>
+        <v>86.2968</v>
       </c>
       <c r="S80">
-        <v>21.9032</v>
+        <v>22.7196</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5823,10 +5823,10 @@
         <v>59</v>
       </c>
       <c r="R81">
-        <v>88.4282</v>
+        <v>87.9948</v>
       </c>
       <c r="S81">
-        <v>22.7956</v>
+        <v>23.6353</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5882,10 +5882,10 @@
         <v>59</v>
       </c>
       <c r="R82">
-        <v>86.514</v>
+        <v>86.50709999999999</v>
       </c>
       <c r="S82">
-        <v>22.7772</v>
+        <v>23.8372</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5941,10 +5941,10 @@
         <v>59</v>
       </c>
       <c r="R83">
-        <v>85.5119</v>
+        <v>84.8492</v>
       </c>
       <c r="S83">
-        <v>21.4039</v>
+        <v>22.1334</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6000,10 +6000,10 @@
         <v>59</v>
       </c>
       <c r="R84">
-        <v>87.5324</v>
+        <v>86.7831</v>
       </c>
       <c r="S84">
-        <v>22.1112</v>
+        <v>23.0206</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6059,10 +6059,10 @@
         <v>59</v>
       </c>
       <c r="R85">
-        <v>85.29810000000001</v>
+        <v>85.5331</v>
       </c>
       <c r="S85">
-        <v>22.5443</v>
+        <v>23.669</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6118,10 +6118,10 @@
         <v>46</v>
       </c>
       <c r="R86">
-        <v>86.65989999999999</v>
+        <v>86.2968</v>
       </c>
       <c r="S86">
-        <v>21.9032</v>
+        <v>22.7196</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6177,10 +6177,10 @@
         <v>46</v>
       </c>
       <c r="R87">
-        <v>88.4282</v>
+        <v>87.9948</v>
       </c>
       <c r="S87">
-        <v>22.7956</v>
+        <v>23.6353</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6236,10 +6236,10 @@
         <v>46</v>
       </c>
       <c r="R88">
-        <v>86.514</v>
+        <v>86.50709999999999</v>
       </c>
       <c r="S88">
-        <v>22.7772</v>
+        <v>23.8372</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6295,10 +6295,10 @@
         <v>46</v>
       </c>
       <c r="R89">
-        <v>85.5119</v>
+        <v>84.8492</v>
       </c>
       <c r="S89">
-        <v>21.4039</v>
+        <v>22.1334</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6354,10 +6354,10 @@
         <v>46</v>
       </c>
       <c r="R90">
-        <v>87.5324</v>
+        <v>86.7831</v>
       </c>
       <c r="S90">
-        <v>22.1112</v>
+        <v>23.0206</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6413,10 +6413,10 @@
         <v>46</v>
       </c>
       <c r="R91">
-        <v>85.29810000000001</v>
+        <v>85.5331</v>
       </c>
       <c r="S91">
-        <v>22.5443</v>
+        <v>23.669</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6472,10 +6472,10 @@
         <v>59</v>
       </c>
       <c r="R92">
-        <v>89.6397</v>
+        <v>88.9269</v>
       </c>
       <c r="S92">
-        <v>24.4669</v>
+        <v>24.8023</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6531,10 +6531,10 @@
         <v>59</v>
       </c>
       <c r="R93">
-        <v>90.8807</v>
+        <v>90.1717</v>
       </c>
       <c r="S93">
-        <v>25.2463</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6590,10 +6590,10 @@
         <v>59</v>
       </c>
       <c r="R94">
-        <v>89.72539999999999</v>
+        <v>89.3369</v>
       </c>
       <c r="S94">
-        <v>25.48</v>
+        <v>26.0345</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6649,10 +6649,10 @@
         <v>59</v>
       </c>
       <c r="R95">
-        <v>86.08459999999999</v>
+        <v>85.96299999999999</v>
       </c>
       <c r="S95">
-        <v>23.0838</v>
+        <v>23.9678</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6708,10 +6708,10 @@
         <v>59</v>
       </c>
       <c r="R96">
-        <v>87.44280000000001</v>
+        <v>87.3424</v>
       </c>
       <c r="S96">
-        <v>24.4218</v>
+        <v>25.2637</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6767,10 +6767,10 @@
         <v>59</v>
       </c>
       <c r="R97">
-        <v>86.7621</v>
+        <v>86.7193</v>
       </c>
       <c r="S97">
-        <v>24.3396</v>
+        <v>25.3816</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6826,10 +6826,10 @@
         <v>46</v>
       </c>
       <c r="R98">
-        <v>89.6397</v>
+        <v>88.9269</v>
       </c>
       <c r="S98">
-        <v>24.4669</v>
+        <v>24.8023</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6885,10 +6885,10 @@
         <v>46</v>
       </c>
       <c r="R99">
-        <v>90.8807</v>
+        <v>90.1717</v>
       </c>
       <c r="S99">
-        <v>25.2463</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6944,10 +6944,10 @@
         <v>46</v>
       </c>
       <c r="R100">
-        <v>89.72539999999999</v>
+        <v>89.3369</v>
       </c>
       <c r="S100">
-        <v>25.48</v>
+        <v>26.0345</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7003,10 +7003,10 @@
         <v>46</v>
       </c>
       <c r="R101">
-        <v>86.08459999999999</v>
+        <v>85.96299999999999</v>
       </c>
       <c r="S101">
-        <v>23.0838</v>
+        <v>23.9678</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7062,10 +7062,10 @@
         <v>46</v>
       </c>
       <c r="R102">
-        <v>87.44280000000001</v>
+        <v>87.3424</v>
       </c>
       <c r="S102">
-        <v>24.4218</v>
+        <v>25.2637</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7121,10 +7121,10 @@
         <v>46</v>
       </c>
       <c r="R103">
-        <v>86.7621</v>
+        <v>86.7193</v>
       </c>
       <c r="S103">
-        <v>24.3396</v>
+        <v>25.3816</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7180,10 +7180,10 @@
         <v>34</v>
       </c>
       <c r="R104">
-        <v>87.2818</v>
+        <v>87.3289</v>
       </c>
       <c r="S104">
-        <v>24.3623</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7239,10 +7239,10 @@
         <v>46</v>
       </c>
       <c r="R105">
-        <v>90.8652</v>
+        <v>90.77809999999999</v>
       </c>
       <c r="S105">
-        <v>26.4604</v>
+        <v>27.3259</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7298,10 +7298,10 @@
         <v>46</v>
       </c>
       <c r="R106">
-        <v>87.0051</v>
+        <v>87.0924</v>
       </c>
       <c r="S106">
-        <v>24.7213</v>
+        <v>26.0194</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7357,10 +7357,10 @@
         <v>59</v>
       </c>
       <c r="R107">
-        <v>87.71080000000001</v>
+        <v>87.651</v>
       </c>
       <c r="S107">
-        <v>23.593</v>
+        <v>24.5831</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7416,10 +7416,10 @@
         <v>59</v>
       </c>
       <c r="R108">
-        <v>87.0342</v>
+        <v>87.0566</v>
       </c>
       <c r="S108">
-        <v>23.798</v>
+        <v>24.8232</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7475,10 +7475,10 @@
         <v>59</v>
       </c>
       <c r="R109">
-        <v>87.98569999999999</v>
+        <v>87.87690000000001</v>
       </c>
       <c r="S109">
-        <v>23.8886</v>
+        <v>25.0677</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7534,10 +7534,10 @@
         <v>59</v>
       </c>
       <c r="R110">
-        <v>87.0423</v>
+        <v>87.2227</v>
       </c>
       <c r="S110">
-        <v>23.507</v>
+        <v>25.2705</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7593,10 +7593,10 @@
         <v>59</v>
       </c>
       <c r="R111">
-        <v>90.7863</v>
+        <v>90.4263</v>
       </c>
       <c r="S111">
-        <v>26.3771</v>
+        <v>27.0386</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7652,10 +7652,10 @@
         <v>59</v>
       </c>
       <c r="R112">
-        <v>87.8702</v>
+        <v>87.86579999999999</v>
       </c>
       <c r="S112">
-        <v>25.7448</v>
+        <v>26.8008</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7711,10 +7711,10 @@
         <v>46</v>
       </c>
       <c r="R113">
-        <v>91.9143</v>
+        <v>91.7563</v>
       </c>
       <c r="S113">
-        <v>27.1846</v>
+        <v>28.0369</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7770,10 +7770,10 @@
         <v>46</v>
       </c>
       <c r="R114">
-        <v>91.01130000000001</v>
+        <v>90.95659999999999</v>
       </c>
       <c r="S114">
-        <v>27.642</v>
+        <v>28.5849</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7829,10 +7829,10 @@
         <v>46</v>
       </c>
       <c r="R115">
-        <v>91.8866</v>
+        <v>91.76860000000001</v>
       </c>
       <c r="S115">
-        <v>28.4743</v>
+        <v>29.4042</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -7888,10 +7888,10 @@
         <v>46</v>
       </c>
       <c r="R116">
-        <v>88.12430000000001</v>
+        <v>88.1532</v>
       </c>
       <c r="S116">
-        <v>26.1676</v>
+        <v>27.4338</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7947,10 +7947,10 @@
         <v>46</v>
       </c>
       <c r="R117">
-        <v>87.5748</v>
+        <v>87.6413</v>
       </c>
       <c r="S117">
-        <v>25.9637</v>
+        <v>27.3532</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8006,10 +8006,10 @@
         <v>46</v>
       </c>
       <c r="R118">
-        <v>88.4712</v>
+        <v>88.4933</v>
       </c>
       <c r="S118">
-        <v>27.4625</v>
+        <v>28.8242</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8065,10 +8065,10 @@
         <v>59</v>
       </c>
       <c r="R119">
-        <v>86.15009999999999</v>
+        <v>85.9855</v>
       </c>
       <c r="S119">
-        <v>21.4926</v>
+        <v>22.313</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8124,10 +8124,10 @@
         <v>59</v>
       </c>
       <c r="R120">
-        <v>87.85550000000001</v>
+        <v>87.6508</v>
       </c>
       <c r="S120">
-        <v>22.5414</v>
+        <v>23.345</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8183,10 +8183,10 @@
         <v>59</v>
       </c>
       <c r="R121">
-        <v>86.2843</v>
+        <v>86.28189999999999</v>
       </c>
       <c r="S121">
-        <v>22.3876</v>
+        <v>23.3915</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8242,10 +8242,10 @@
         <v>59</v>
       </c>
       <c r="R122">
-        <v>85.08710000000001</v>
+        <v>84.85680000000001</v>
       </c>
       <c r="S122">
-        <v>21.4599</v>
+        <v>22.1809</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8301,10 +8301,10 @@
         <v>59</v>
       </c>
       <c r="R123">
-        <v>86.979</v>
+        <v>86.66240000000001</v>
       </c>
       <c r="S123">
-        <v>22.4341</v>
+        <v>23.2379</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8360,10 +8360,10 @@
         <v>59</v>
       </c>
       <c r="R124">
-        <v>85.4864</v>
+        <v>85.6302</v>
       </c>
       <c r="S124">
-        <v>22.6135</v>
+        <v>23.5891</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8419,10 +8419,10 @@
         <v>46</v>
       </c>
       <c r="R125">
-        <v>86.15009999999999</v>
+        <v>85.9855</v>
       </c>
       <c r="S125">
-        <v>21.4926</v>
+        <v>22.313</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8478,10 +8478,10 @@
         <v>46</v>
       </c>
       <c r="R126">
-        <v>87.85550000000001</v>
+        <v>87.6508</v>
       </c>
       <c r="S126">
-        <v>22.5414</v>
+        <v>23.345</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8537,10 +8537,10 @@
         <v>46</v>
       </c>
       <c r="R127">
-        <v>86.2843</v>
+        <v>86.28189999999999</v>
       </c>
       <c r="S127">
-        <v>22.3876</v>
+        <v>23.3915</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8596,10 +8596,10 @@
         <v>46</v>
       </c>
       <c r="R128">
-        <v>85.08710000000001</v>
+        <v>84.85680000000001</v>
       </c>
       <c r="S128">
-        <v>21.4599</v>
+        <v>22.1809</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8655,10 +8655,10 @@
         <v>46</v>
       </c>
       <c r="R129">
-        <v>86.979</v>
+        <v>86.66240000000001</v>
       </c>
       <c r="S129">
-        <v>22.4341</v>
+        <v>23.2379</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8714,10 +8714,10 @@
         <v>46</v>
       </c>
       <c r="R130">
-        <v>85.4864</v>
+        <v>85.6302</v>
       </c>
       <c r="S130">
-        <v>22.6135</v>
+        <v>23.5891</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8773,10 +8773,10 @@
         <v>59</v>
       </c>
       <c r="R131">
-        <v>86.65989999999999</v>
+        <v>86.2132</v>
       </c>
       <c r="S131">
-        <v>21.9032</v>
+        <v>22.7848</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8832,10 +8832,10 @@
         <v>59</v>
       </c>
       <c r="R132">
-        <v>88.4282</v>
+        <v>87.85339999999999</v>
       </c>
       <c r="S132">
-        <v>22.7956</v>
+        <v>23.787</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8891,10 +8891,10 @@
         <v>59</v>
       </c>
       <c r="R133">
-        <v>86.514</v>
+        <v>86.5552</v>
       </c>
       <c r="S133">
-        <v>22.7772</v>
+        <v>23.8853</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8950,10 +8950,10 @@
         <v>59</v>
       </c>
       <c r="R134">
-        <v>85.5119</v>
+        <v>84.9603</v>
       </c>
       <c r="S134">
-        <v>21.4039</v>
+        <v>22.5111</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -9009,10 +9009,10 @@
         <v>59</v>
       </c>
       <c r="R135">
-        <v>87.5324</v>
+        <v>86.71129999999999</v>
       </c>
       <c r="S135">
-        <v>22.1112</v>
+        <v>23.6095</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9068,10 +9068,10 @@
         <v>59</v>
       </c>
       <c r="R136">
-        <v>85.29810000000001</v>
+        <v>85.8586</v>
       </c>
       <c r="S136">
-        <v>22.5443</v>
+        <v>24.0039</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9127,10 +9127,10 @@
         <v>46</v>
       </c>
       <c r="R137">
-        <v>86.65989999999999</v>
+        <v>86.2132</v>
       </c>
       <c r="S137">
-        <v>21.9032</v>
+        <v>22.7848</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9186,10 +9186,10 @@
         <v>46</v>
       </c>
       <c r="R138">
-        <v>88.4282</v>
+        <v>87.85339999999999</v>
       </c>
       <c r="S138">
-        <v>22.7956</v>
+        <v>23.787</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9245,10 +9245,10 @@
         <v>46</v>
       </c>
       <c r="R139">
-        <v>86.514</v>
+        <v>86.5552</v>
       </c>
       <c r="S139">
-        <v>22.7772</v>
+        <v>23.8853</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9304,10 +9304,10 @@
         <v>46</v>
       </c>
       <c r="R140">
-        <v>85.5119</v>
+        <v>84.9603</v>
       </c>
       <c r="S140">
-        <v>21.4039</v>
+        <v>22.5111</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -9363,10 +9363,10 @@
         <v>46</v>
       </c>
       <c r="R141">
-        <v>87.5324</v>
+        <v>86.71129999999999</v>
       </c>
       <c r="S141">
-        <v>22.1112</v>
+        <v>23.6095</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9422,10 +9422,10 @@
         <v>46</v>
       </c>
       <c r="R142">
-        <v>85.29810000000001</v>
+        <v>85.8586</v>
       </c>
       <c r="S142">
-        <v>22.5443</v>
+        <v>24.0039</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -9481,10 +9481,10 @@
         <v>59</v>
       </c>
       <c r="R143">
-        <v>89.6397</v>
+        <v>89.0226</v>
       </c>
       <c r="S143">
-        <v>24.4669</v>
+        <v>24.8926</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -9540,10 +9540,10 @@
         <v>59</v>
       </c>
       <c r="R144">
-        <v>90.8807</v>
+        <v>90.2407</v>
       </c>
       <c r="S144">
-        <v>25.2463</v>
+        <v>25.7447</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9599,10 +9599,10 @@
         <v>59</v>
       </c>
       <c r="R145">
-        <v>89.72539999999999</v>
+        <v>89.40470000000001</v>
       </c>
       <c r="S145">
-        <v>25.48</v>
+        <v>26.0982</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -9658,10 +9658,10 @@
         <v>59</v>
       </c>
       <c r="R146">
-        <v>86.08459999999999</v>
+        <v>86.0924</v>
       </c>
       <c r="S146">
-        <v>23.0838</v>
+        <v>24.0217</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -9717,10 +9717,10 @@
         <v>59</v>
       </c>
       <c r="R147">
-        <v>87.44280000000001</v>
+        <v>87.4068</v>
       </c>
       <c r="S147">
-        <v>24.4218</v>
+        <v>25.3674</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -9776,10 +9776,10 @@
         <v>59</v>
       </c>
       <c r="R148">
-        <v>86.7621</v>
+        <v>86.79559999999999</v>
       </c>
       <c r="S148">
-        <v>24.3396</v>
+        <v>25.3977</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -9835,10 +9835,10 @@
         <v>46</v>
       </c>
       <c r="R149">
-        <v>89.6397</v>
+        <v>89.0226</v>
       </c>
       <c r="S149">
-        <v>24.4669</v>
+        <v>24.8926</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -9894,10 +9894,10 @@
         <v>46</v>
       </c>
       <c r="R150">
-        <v>90.8807</v>
+        <v>90.2407</v>
       </c>
       <c r="S150">
-        <v>25.2463</v>
+        <v>25.7447</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -9953,10 +9953,10 @@
         <v>46</v>
       </c>
       <c r="R151">
-        <v>89.72539999999999</v>
+        <v>89.40470000000001</v>
       </c>
       <c r="S151">
-        <v>25.48</v>
+        <v>26.0982</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10012,10 +10012,10 @@
         <v>46</v>
       </c>
       <c r="R152">
-        <v>86.08459999999999</v>
+        <v>86.0924</v>
       </c>
       <c r="S152">
-        <v>23.0838</v>
+        <v>24.0217</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10071,10 +10071,10 @@
         <v>46</v>
       </c>
       <c r="R153">
-        <v>87.44280000000001</v>
+        <v>87.4068</v>
       </c>
       <c r="S153">
-        <v>24.4218</v>
+        <v>25.3674</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -10130,10 +10130,10 @@
         <v>46</v>
       </c>
       <c r="R154">
-        <v>86.7621</v>
+        <v>86.79559999999999</v>
       </c>
       <c r="S154">
-        <v>24.3396</v>
+        <v>25.3977</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="1" customFormat="1">
@@ -10200,10 +10200,10 @@
         <v>220</v>
       </c>
       <c r="R156" s="1">
-        <v>85.08710000000001</v>
+        <v>84.8492</v>
       </c>
       <c r="S156" s="1">
-        <v>21.4039</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="1" customFormat="1">
@@ -10211,10 +10211,10 @@
         <v>221</v>
       </c>
       <c r="R157" s="1">
-        <v>91.9143</v>
+        <v>92.239</v>
       </c>
       <c r="S157" s="1">
-        <v>28.4743</v>
+        <v>29.7742</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="1" customFormat="1">
@@ -10254,10 +10254,10 @@
         <v>226</v>
       </c>
       <c r="R162" s="1">
-        <v>87.63153921568626</v>
+        <v>87.56209150326792</v>
       </c>
       <c r="S162" s="1">
-        <v>23.77162745098037</v>
+        <v>24.70139215686274</v>
       </c>
     </row>
     <row r="163" spans="17:19" s="1" customFormat="1">
@@ -10265,10 +10265,10 @@
         <v>227</v>
       </c>
       <c r="R163" s="1">
-        <v>1.834466343096086</v>
+        <v>1.808602244610144</v>
       </c>
       <c r="S163" s="1">
-        <v>1.828847453203678</v>
+        <v>1.901922603132025</v>
       </c>
     </row>
     <row r="164" spans="17:19" s="1" customFormat="1">
@@ -10276,10 +10276,10 @@
         <v>228</v>
       </c>
       <c r="R164" s="1">
-        <v>2.093385965275516</v>
+        <v>2.065508273683304</v>
       </c>
       <c r="S164" s="1">
-        <v>7.693404488081249</v>
+        <v>7.699657537737678</v>
       </c>
     </row>
     <row r="165" spans="17:19" s="1" customFormat="1"/>

--- a/dcd_opamp_stability_pre_tsmc2p_meas.xlsx
+++ b/dcd_opamp_stability_pre_tsmc2p_meas.xlsx
@@ -100,7 +100,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>0.42</t>
+    <t>0.65</t>
   </si>
   <si>
     <t>0.75</t>
@@ -148,7 +148,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>0.441</t>
+    <t>0.702</t>
   </si>
   <si>
     <t>0.825</t>
@@ -187,7 +187,7 @@
     <t>cap_h</t>
   </si>
   <si>
-    <t>0.386</t>
+    <t>0.585</t>
   </si>
   <si>
     <t>0.675</t>
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>87.5184</v>
+        <v>85.8583</v>
       </c>
       <c r="S2">
-        <v>25.4744</v>
+        <v>25.5712</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1221,10 +1221,10 @@
         <v>46</v>
       </c>
       <c r="R3">
-        <v>91.3415</v>
+        <v>89.74630000000001</v>
       </c>
       <c r="S3">
-        <v>27.9059</v>
+        <v>29.2998</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1280,10 +1280,10 @@
         <v>46</v>
       </c>
       <c r="R4">
-        <v>87.3524</v>
+        <v>85.5117</v>
       </c>
       <c r="S4">
-        <v>25.9672</v>
+        <v>26.2739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1339,10 +1339,10 @@
         <v>59</v>
       </c>
       <c r="R5">
-        <v>87.67919999999999</v>
+        <v>86.1319</v>
       </c>
       <c r="S5">
-        <v>24.4717</v>
+        <v>24.3746</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1398,10 +1398,10 @@
         <v>59</v>
       </c>
       <c r="R6">
-        <v>87.29770000000001</v>
+        <v>85.7881</v>
       </c>
       <c r="S6">
-        <v>24.5417</v>
+        <v>25.0399</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1457,10 +1457,10 @@
         <v>59</v>
       </c>
       <c r="R7">
-        <v>87.9143</v>
+        <v>86.4473</v>
       </c>
       <c r="S7">
-        <v>25.1468</v>
+        <v>25.1422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1516,10 +1516,10 @@
         <v>59</v>
       </c>
       <c r="R8">
-        <v>87.4828</v>
+        <v>85.9235</v>
       </c>
       <c r="S8">
-        <v>25.5037</v>
+        <v>25.5773</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1575,10 +1575,10 @@
         <v>59</v>
       </c>
       <c r="R9">
-        <v>91.3001</v>
+        <v>89.7987</v>
       </c>
       <c r="S9">
-        <v>27.4835</v>
+        <v>27.4988</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1634,10 +1634,10 @@
         <v>59</v>
       </c>
       <c r="R10">
-        <v>87.8895</v>
+        <v>86.73090000000001</v>
       </c>
       <c r="S10">
-        <v>26.1185</v>
+        <v>27.0936</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1693,10 +1693,10 @@
         <v>46</v>
       </c>
       <c r="R11">
-        <v>92.239</v>
+        <v>90.9538</v>
       </c>
       <c r="S11">
-        <v>28.5717</v>
+        <v>29.5003</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1752,10 +1752,10 @@
         <v>46</v>
       </c>
       <c r="R12">
-        <v>91.3008</v>
+        <v>89.98480000000001</v>
       </c>
       <c r="S12">
-        <v>28.9826</v>
+        <v>30.9626</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1811,10 +1811,10 @@
         <v>46</v>
       </c>
       <c r="R13">
-        <v>92.0617</v>
+        <v>91.0844</v>
       </c>
       <c r="S13">
-        <v>29.7742</v>
+        <v>31.1144</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1870,10 +1870,10 @@
         <v>46</v>
       </c>
       <c r="R14">
-        <v>88.26990000000001</v>
+        <v>87.1268</v>
       </c>
       <c r="S14">
-        <v>27.4481</v>
+        <v>28.003</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1929,10 +1929,10 @@
         <v>46</v>
       </c>
       <c r="R15">
-        <v>87.7945</v>
+        <v>86.0896</v>
       </c>
       <c r="S15">
-        <v>27.1768</v>
+        <v>28.4314</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1988,10 +1988,10 @@
         <v>46</v>
       </c>
       <c r="R16">
-        <v>88.5504</v>
+        <v>87.5098</v>
       </c>
       <c r="S16">
-        <v>28.6812</v>
+        <v>30.1699</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2047,10 +2047,10 @@
         <v>59</v>
       </c>
       <c r="R17">
-        <v>85.9237</v>
+        <v>83.1939</v>
       </c>
       <c r="S17">
-        <v>22.0315</v>
+        <v>21.8291</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2106,10 +2106,10 @@
         <v>59</v>
       </c>
       <c r="R18">
-        <v>87.3729</v>
+        <v>85.8051</v>
       </c>
       <c r="S18">
-        <v>23.2611</v>
+        <v>22.9823</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2165,10 +2165,10 @@
         <v>59</v>
       </c>
       <c r="R19">
-        <v>86.4654</v>
+        <v>83.8659</v>
       </c>
       <c r="S19">
-        <v>23.1743</v>
+        <v>23.0325</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2224,10 +2224,10 @@
         <v>59</v>
       </c>
       <c r="R20">
-        <v>85.51860000000001</v>
+        <v>82.3882</v>
       </c>
       <c r="S20">
-        <v>21.8685</v>
+        <v>21.9305</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2283,10 +2283,10 @@
         <v>59</v>
       </c>
       <c r="R21">
-        <v>86.79989999999999</v>
+        <v>85.0628</v>
       </c>
       <c r="S21">
-        <v>23.2675</v>
+        <v>23.3116</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2342,10 +2342,10 @@
         <v>59</v>
       </c>
       <c r="R22">
-        <v>86.2358</v>
+        <v>83.55459999999999</v>
       </c>
       <c r="S22">
-        <v>23.1263</v>
+        <v>23.4876</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2401,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="R23">
-        <v>85.9237</v>
+        <v>83.1553</v>
       </c>
       <c r="S23">
-        <v>22.0315</v>
+        <v>22.0209</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2460,10 +2460,10 @@
         <v>46</v>
       </c>
       <c r="R24">
-        <v>87.3729</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="S24">
-        <v>23.2611</v>
+        <v>23.1123</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2519,10 +2519,10 @@
         <v>46</v>
       </c>
       <c r="R25">
-        <v>86.4654</v>
+        <v>83.834</v>
       </c>
       <c r="S25">
-        <v>23.1743</v>
+        <v>23.1681</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2578,10 +2578,10 @@
         <v>46</v>
       </c>
       <c r="R26">
-        <v>85.51860000000001</v>
+        <v>82.3464</v>
       </c>
       <c r="S26">
-        <v>21.8685</v>
+        <v>22.0579</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2637,10 +2637,10 @@
         <v>46</v>
       </c>
       <c r="R27">
-        <v>86.79989999999999</v>
+        <v>85.07259999999999</v>
       </c>
       <c r="S27">
-        <v>23.2675</v>
+        <v>23.3893</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2696,10 +2696,10 @@
         <v>46</v>
       </c>
       <c r="R28">
-        <v>86.2358</v>
+        <v>83.5166</v>
       </c>
       <c r="S28">
-        <v>23.1263</v>
+        <v>23.5534</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2755,10 +2755,10 @@
         <v>59</v>
       </c>
       <c r="R29">
-        <v>86.1968</v>
+        <v>83.4659</v>
       </c>
       <c r="S29">
-        <v>22.7673</v>
+        <v>22.8282</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2814,10 +2814,10 @@
         <v>59</v>
       </c>
       <c r="R30">
-        <v>87.6857</v>
+        <v>86.0933</v>
       </c>
       <c r="S30">
-        <v>23.933</v>
+        <v>23.8539</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2873,10 +2873,10 @@
         <v>59</v>
       </c>
       <c r="R31">
-        <v>86.6966</v>
+        <v>84.2801</v>
       </c>
       <c r="S31">
-        <v>23.8768</v>
+        <v>23.8357</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2932,10 +2932,10 @@
         <v>59</v>
       </c>
       <c r="R32">
-        <v>85.60509999999999</v>
+        <v>82.4106</v>
       </c>
       <c r="S32">
-        <v>22.7302</v>
+        <v>22.4639</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2991,10 +2991,10 @@
         <v>59</v>
       </c>
       <c r="R33">
-        <v>86.9742</v>
+        <v>85.1408</v>
       </c>
       <c r="S33">
-        <v>24.1194</v>
+        <v>23.7685</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3050,10 +3050,10 @@
         <v>59</v>
       </c>
       <c r="R34">
-        <v>86.3647</v>
+        <v>83.7024</v>
       </c>
       <c r="S34">
-        <v>24.0725</v>
+        <v>24.0568</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3109,10 +3109,10 @@
         <v>46</v>
       </c>
       <c r="R35">
-        <v>86.1968</v>
+        <v>83.4192</v>
       </c>
       <c r="S35">
-        <v>22.7673</v>
+        <v>22.9535</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3168,10 +3168,10 @@
         <v>46</v>
       </c>
       <c r="R36">
-        <v>87.6857</v>
+        <v>86.0853</v>
       </c>
       <c r="S36">
-        <v>23.933</v>
+        <v>23.928</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3227,10 +3227,10 @@
         <v>46</v>
       </c>
       <c r="R37">
-        <v>86.6966</v>
+        <v>84.25060000000001</v>
       </c>
       <c r="S37">
-        <v>23.8768</v>
+        <v>23.936</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3286,10 +3286,10 @@
         <v>46</v>
       </c>
       <c r="R38">
-        <v>85.60509999999999</v>
+        <v>82.37909999999999</v>
       </c>
       <c r="S38">
-        <v>22.7302</v>
+        <v>22.5893</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3345,10 +3345,10 @@
         <v>46</v>
       </c>
       <c r="R39">
-        <v>86.9742</v>
+        <v>85.1506</v>
       </c>
       <c r="S39">
-        <v>24.1194</v>
+        <v>23.8456</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3404,10 +3404,10 @@
         <v>46</v>
       </c>
       <c r="R40">
-        <v>86.3647</v>
+        <v>83.6673</v>
       </c>
       <c r="S40">
-        <v>24.0725</v>
+        <v>24.1202</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3463,10 +3463,10 @@
         <v>59</v>
       </c>
       <c r="R41">
-        <v>90.1965</v>
+        <v>88.00879999999999</v>
       </c>
       <c r="S41">
-        <v>25.5758</v>
+        <v>25.5674</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3522,10 +3522,10 @@
         <v>59</v>
       </c>
       <c r="R42">
-        <v>91.2687</v>
+        <v>89.6116</v>
       </c>
       <c r="S42">
-        <v>26.3349</v>
+        <v>26.1121</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3581,10 +3581,10 @@
         <v>59</v>
       </c>
       <c r="R43">
-        <v>90.37990000000001</v>
+        <v>88.3224</v>
       </c>
       <c r="S43">
-        <v>26.6282</v>
+        <v>26.911</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3640,10 +3640,10 @@
         <v>59</v>
       </c>
       <c r="R44">
-        <v>86.4474</v>
+        <v>84.3095</v>
       </c>
       <c r="S44">
-        <v>23.4647</v>
+        <v>23.3514</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3699,10 +3699,10 @@
         <v>59</v>
       </c>
       <c r="R45">
-        <v>87.5097</v>
+        <v>86.2419</v>
       </c>
       <c r="S45">
-        <v>24.8955</v>
+        <v>25.1187</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3758,10 +3758,10 @@
         <v>59</v>
       </c>
       <c r="R46">
-        <v>86.9986</v>
+        <v>85.00960000000001</v>
       </c>
       <c r="S46">
-        <v>24.6778</v>
+        <v>25.3037</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3817,10 +3817,10 @@
         <v>46</v>
       </c>
       <c r="R47">
-        <v>90.1965</v>
+        <v>87.9226</v>
       </c>
       <c r="S47">
-        <v>25.5758</v>
+        <v>25.6897</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3876,10 +3876,10 @@
         <v>46</v>
       </c>
       <c r="R48">
-        <v>91.2687</v>
+        <v>89.58929999999999</v>
       </c>
       <c r="S48">
-        <v>26.3349</v>
+        <v>26.1886</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3935,10 +3935,10 @@
         <v>46</v>
       </c>
       <c r="R49">
-        <v>90.37990000000001</v>
+        <v>88.2334</v>
       </c>
       <c r="S49">
-        <v>26.6282</v>
+        <v>26.9878</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3994,10 +3994,10 @@
         <v>46</v>
       </c>
       <c r="R50">
-        <v>86.4474</v>
+        <v>84.24939999999999</v>
       </c>
       <c r="S50">
-        <v>23.4647</v>
+        <v>23.5212</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4053,10 +4053,10 @@
         <v>46</v>
       </c>
       <c r="R51">
-        <v>87.5097</v>
+        <v>86.2527</v>
       </c>
       <c r="S51">
-        <v>24.8955</v>
+        <v>25.2138</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4112,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="R52">
-        <v>86.9986</v>
+        <v>84.98739999999999</v>
       </c>
       <c r="S52">
-        <v>24.6778</v>
+        <v>25.3647</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4171,10 +4171,10 @@
         <v>34</v>
       </c>
       <c r="R53">
-        <v>87.292</v>
+        <v>85.5471</v>
       </c>
       <c r="S53">
-        <v>25.5036</v>
+        <v>25.4762</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4230,10 +4230,10 @@
         <v>46</v>
       </c>
       <c r="R54">
-        <v>90.7664</v>
+        <v>89.71939999999999</v>
       </c>
       <c r="S54">
-        <v>27.2992</v>
+        <v>29.1836</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4289,10 +4289,10 @@
         <v>46</v>
       </c>
       <c r="R55">
-        <v>87.0783</v>
+        <v>85.3207</v>
       </c>
       <c r="S55">
-        <v>26.0106</v>
+        <v>26.2925</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4348,10 +4348,10 @@
         <v>59</v>
       </c>
       <c r="R56">
-        <v>87.651</v>
+        <v>85.96210000000001</v>
       </c>
       <c r="S56">
-        <v>24.494</v>
+        <v>24.2473</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4407,10 +4407,10 @@
         <v>59</v>
       </c>
       <c r="R57">
-        <v>86.8865</v>
+        <v>84.8139</v>
       </c>
       <c r="S57">
-        <v>24.2741</v>
+        <v>23.6358</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4466,10 +4466,10 @@
         <v>59</v>
       </c>
       <c r="R58">
-        <v>87.8737</v>
+        <v>86.27509999999999</v>
       </c>
       <c r="S58">
-        <v>24.9707</v>
+        <v>24.9438</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4525,10 +4525,10 @@
         <v>59</v>
       </c>
       <c r="R59">
-        <v>87.057</v>
+        <v>85.02760000000001</v>
       </c>
       <c r="S59">
-        <v>24.7922</v>
+        <v>24.1725</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4584,10 +4584,10 @@
         <v>59</v>
       </c>
       <c r="R60">
-        <v>90.37569999999999</v>
+        <v>89.5393</v>
       </c>
       <c r="S60">
-        <v>26.9687</v>
+        <v>27.311</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4643,10 +4643,10 @@
         <v>59</v>
       </c>
       <c r="R61">
-        <v>87.82850000000001</v>
+        <v>86.4888</v>
       </c>
       <c r="S61">
-        <v>26.7553</v>
+        <v>26.9903</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4702,10 +4702,10 @@
         <v>46</v>
       </c>
       <c r="R62">
-        <v>91.749</v>
+        <v>90.9796</v>
       </c>
       <c r="S62">
-        <v>28.0088</v>
+        <v>29.3637</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4761,10 +4761,10 @@
         <v>46</v>
       </c>
       <c r="R63">
-        <v>90.9491</v>
+        <v>89.9654</v>
       </c>
       <c r="S63">
-        <v>28.5651</v>
+        <v>30.8451</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4820,10 +4820,10 @@
         <v>46</v>
       </c>
       <c r="R64">
-        <v>91.7641</v>
+        <v>91.0955</v>
       </c>
       <c r="S64">
-        <v>29.3834</v>
+        <v>30.9925</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4879,10 +4879,10 @@
         <v>46</v>
       </c>
       <c r="R65">
-        <v>88.1468</v>
+        <v>87.03149999999999</v>
       </c>
       <c r="S65">
-        <v>27.4193</v>
+        <v>27.9289</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4938,10 +4938,10 @@
         <v>46</v>
       </c>
       <c r="R66">
-        <v>87.63209999999999</v>
+        <v>85.9834</v>
       </c>
       <c r="S66">
-        <v>27.3522</v>
+        <v>28.4171</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4997,10 +4997,10 @@
         <v>46</v>
       </c>
       <c r="R67">
-        <v>88.4896</v>
+        <v>87.45959999999999</v>
       </c>
       <c r="S67">
-        <v>28.8192</v>
+        <v>30.0884</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5056,10 +5056,10 @@
         <v>59</v>
       </c>
       <c r="R68">
-        <v>86.1015</v>
+        <v>83.3704</v>
       </c>
       <c r="S68">
-        <v>22.2832</v>
+        <v>22.3352</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5115,10 +5115,10 @@
         <v>59</v>
       </c>
       <c r="R69">
-        <v>87.82850000000001</v>
+        <v>86.2564</v>
       </c>
       <c r="S69">
-        <v>23.2199</v>
+        <v>22.9821</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5174,10 +5174,10 @@
         <v>59</v>
       </c>
       <c r="R70">
-        <v>86.2313</v>
+        <v>83.41589999999999</v>
       </c>
       <c r="S70">
-        <v>23.3567</v>
+        <v>23.2064</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5233,10 +5233,10 @@
         <v>59</v>
       </c>
       <c r="R71">
-        <v>85.01649999999999</v>
+        <v>82.7234</v>
       </c>
       <c r="S71">
-        <v>21.86</v>
+        <v>22.0691</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5292,10 +5292,10 @@
         <v>59</v>
       </c>
       <c r="R72">
-        <v>87.0034</v>
+        <v>85.90649999999999</v>
       </c>
       <c r="S72">
-        <v>22.6605</v>
+        <v>22.3663</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5351,10 +5351,10 @@
         <v>59</v>
       </c>
       <c r="R73">
-        <v>85.2719</v>
+        <v>81.7792</v>
       </c>
       <c r="S73">
-        <v>23.2102</v>
+        <v>22.7948</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5410,10 +5410,10 @@
         <v>46</v>
       </c>
       <c r="R74">
-        <v>86.1015</v>
+        <v>83.24299999999999</v>
       </c>
       <c r="S74">
-        <v>22.2832</v>
+        <v>22.4949</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5469,10 +5469,10 @@
         <v>46</v>
       </c>
       <c r="R75">
-        <v>87.82850000000001</v>
+        <v>86.16249999999999</v>
       </c>
       <c r="S75">
-        <v>23.2199</v>
+        <v>23.1201</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5528,10 +5528,10 @@
         <v>46</v>
       </c>
       <c r="R76">
-        <v>86.2313</v>
+        <v>83.4134</v>
       </c>
       <c r="S76">
-        <v>23.3567</v>
+        <v>23.3433</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5587,10 +5587,10 @@
         <v>46</v>
       </c>
       <c r="R77">
-        <v>85.01649999999999</v>
+        <v>82.3282</v>
       </c>
       <c r="S77">
-        <v>21.86</v>
+        <v>22.2117</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5646,10 +5646,10 @@
         <v>46</v>
       </c>
       <c r="R78">
-        <v>87.0034</v>
+        <v>85.58499999999999</v>
       </c>
       <c r="S78">
-        <v>22.6605</v>
+        <v>22.5156</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5705,10 +5705,10 @@
         <v>46</v>
       </c>
       <c r="R79">
-        <v>85.2719</v>
+        <v>81.82599999999999</v>
       </c>
       <c r="S79">
-        <v>23.2102</v>
+        <v>23.0171</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5764,10 +5764,10 @@
         <v>59</v>
       </c>
       <c r="R80">
-        <v>86.2968</v>
+        <v>83.47410000000001</v>
       </c>
       <c r="S80">
-        <v>22.7196</v>
+        <v>23.0615</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5823,10 +5823,10 @@
         <v>59</v>
       </c>
       <c r="R81">
-        <v>87.9948</v>
+        <v>86.38339999999999</v>
       </c>
       <c r="S81">
-        <v>23.6353</v>
+        <v>23.6407</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5882,10 +5882,10 @@
         <v>59</v>
       </c>
       <c r="R82">
-        <v>86.50709999999999</v>
+        <v>83.85760000000001</v>
       </c>
       <c r="S82">
-        <v>23.8372</v>
+        <v>23.8954</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5941,10 +5941,10 @@
         <v>59</v>
       </c>
       <c r="R83">
-        <v>84.8492</v>
+        <v>81.9088</v>
       </c>
       <c r="S83">
-        <v>22.1334</v>
+        <v>22.0858</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6000,10 +6000,10 @@
         <v>59</v>
       </c>
       <c r="R84">
-        <v>86.7831</v>
+        <v>85.2004</v>
       </c>
       <c r="S84">
-        <v>23.0206</v>
+        <v>22.5315</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6059,10 +6059,10 @@
         <v>59</v>
       </c>
       <c r="R85">
-        <v>85.5331</v>
+        <v>82.12779999999999</v>
       </c>
       <c r="S85">
-        <v>23.669</v>
+        <v>23.2244</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6118,10 +6118,10 @@
         <v>46</v>
       </c>
       <c r="R86">
-        <v>86.2968</v>
+        <v>83.34520000000001</v>
       </c>
       <c r="S86">
-        <v>22.7196</v>
+        <v>23.1733</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6177,10 +6177,10 @@
         <v>46</v>
       </c>
       <c r="R87">
-        <v>87.9948</v>
+        <v>86.2717</v>
       </c>
       <c r="S87">
-        <v>23.6353</v>
+        <v>23.7446</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6236,10 +6236,10 @@
         <v>46</v>
       </c>
       <c r="R88">
-        <v>86.50709999999999</v>
+        <v>83.8622</v>
       </c>
       <c r="S88">
-        <v>23.8372</v>
+        <v>24.0036</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6295,10 +6295,10 @@
         <v>46</v>
       </c>
       <c r="R89">
-        <v>84.8492</v>
+        <v>81.67100000000001</v>
       </c>
       <c r="S89">
-        <v>22.1334</v>
+        <v>22.2533</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6354,10 +6354,10 @@
         <v>46</v>
       </c>
       <c r="R90">
-        <v>86.7831</v>
+        <v>85.0055</v>
       </c>
       <c r="S90">
-        <v>23.0206</v>
+        <v>22.7069</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6413,10 +6413,10 @@
         <v>46</v>
       </c>
       <c r="R91">
-        <v>85.5331</v>
+        <v>82.2017</v>
       </c>
       <c r="S91">
-        <v>23.669</v>
+        <v>23.4517</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6472,10 +6472,10 @@
         <v>59</v>
       </c>
       <c r="R92">
-        <v>88.9269</v>
+        <v>87.5044</v>
       </c>
       <c r="S92">
-        <v>24.8023</v>
+        <v>25.3724</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6531,10 +6531,10 @@
         <v>59</v>
       </c>
       <c r="R93">
-        <v>90.1717</v>
+        <v>89.2898</v>
       </c>
       <c r="S93">
-        <v>25.644</v>
+        <v>25.8809</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6590,10 +6590,10 @@
         <v>59</v>
       </c>
       <c r="R94">
-        <v>89.3369</v>
+        <v>87.9524</v>
       </c>
       <c r="S94">
-        <v>26.0345</v>
+        <v>26.7367</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6649,10 +6649,10 @@
         <v>59</v>
       </c>
       <c r="R95">
-        <v>85.96299999999999</v>
+        <v>83.42319999999999</v>
       </c>
       <c r="S95">
-        <v>23.9678</v>
+        <v>23.5761</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6708,10 +6708,10 @@
         <v>59</v>
       </c>
       <c r="R96">
-        <v>87.3424</v>
+        <v>85.786</v>
       </c>
       <c r="S96">
-        <v>25.2637</v>
+        <v>24.9846</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6767,10 +6767,10 @@
         <v>59</v>
       </c>
       <c r="R97">
-        <v>86.7193</v>
+        <v>84.5257</v>
       </c>
       <c r="S97">
-        <v>25.3816</v>
+        <v>25.4424</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6826,10 +6826,10 @@
         <v>46</v>
       </c>
       <c r="R98">
-        <v>88.9269</v>
+        <v>87.40779999999999</v>
       </c>
       <c r="S98">
-        <v>24.8023</v>
+        <v>25.4774</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6885,10 +6885,10 @@
         <v>46</v>
       </c>
       <c r="R99">
-        <v>90.1717</v>
+        <v>89.24209999999999</v>
       </c>
       <c r="S99">
-        <v>25.644</v>
+        <v>25.9418</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6944,10 +6944,10 @@
         <v>46</v>
       </c>
       <c r="R100">
-        <v>89.3369</v>
+        <v>87.8686</v>
       </c>
       <c r="S100">
-        <v>26.0345</v>
+        <v>26.8073</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7003,10 +7003,10 @@
         <v>46</v>
       </c>
       <c r="R101">
-        <v>85.96299999999999</v>
+        <v>83.4315</v>
       </c>
       <c r="S101">
-        <v>23.9678</v>
+        <v>23.7206</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7062,10 +7062,10 @@
         <v>46</v>
       </c>
       <c r="R102">
-        <v>87.3424</v>
+        <v>85.8275</v>
       </c>
       <c r="S102">
-        <v>25.2637</v>
+        <v>25.0797</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7121,10 +7121,10 @@
         <v>46</v>
       </c>
       <c r="R103">
-        <v>86.7193</v>
+        <v>84.5265</v>
       </c>
       <c r="S103">
-        <v>25.3816</v>
+        <v>25.4962</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7180,10 +7180,10 @@
         <v>34</v>
       </c>
       <c r="R104">
-        <v>87.3289</v>
+        <v>85.6908</v>
       </c>
       <c r="S104">
-        <v>25.55</v>
+        <v>25.5547</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7239,10 +7239,10 @@
         <v>46</v>
       </c>
       <c r="R105">
-        <v>90.77809999999999</v>
+        <v>89.7197</v>
       </c>
       <c r="S105">
-        <v>27.3259</v>
+        <v>29.2072</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7298,10 +7298,10 @@
         <v>46</v>
       </c>
       <c r="R106">
-        <v>87.0924</v>
+        <v>85.36069999999999</v>
       </c>
       <c r="S106">
-        <v>26.0194</v>
+        <v>26.2957</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7357,10 +7357,10 @@
         <v>59</v>
       </c>
       <c r="R107">
-        <v>87.651</v>
+        <v>86.0389</v>
       </c>
       <c r="S107">
-        <v>24.5831</v>
+        <v>24.373</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7416,10 +7416,10 @@
         <v>59</v>
       </c>
       <c r="R108">
-        <v>87.0566</v>
+        <v>85.2632</v>
       </c>
       <c r="S108">
-        <v>24.8232</v>
+        <v>24.4906</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7475,10 +7475,10 @@
         <v>59</v>
       </c>
       <c r="R109">
-        <v>87.87690000000001</v>
+        <v>86.3616</v>
       </c>
       <c r="S109">
-        <v>25.0677</v>
+        <v>25.0909</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7534,10 +7534,10 @@
         <v>59</v>
       </c>
       <c r="R110">
-        <v>87.2227</v>
+        <v>85.5013</v>
       </c>
       <c r="S110">
-        <v>25.2705</v>
+        <v>25.0276</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7593,10 +7593,10 @@
         <v>59</v>
       </c>
       <c r="R111">
-        <v>90.4263</v>
+        <v>89.61539999999999</v>
       </c>
       <c r="S111">
-        <v>27.0386</v>
+        <v>27.3991</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7652,10 +7652,10 @@
         <v>59</v>
       </c>
       <c r="R112">
-        <v>87.86579999999999</v>
+        <v>86.6173</v>
       </c>
       <c r="S112">
-        <v>26.8008</v>
+        <v>27.1231</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7711,10 +7711,10 @@
         <v>46</v>
       </c>
       <c r="R113">
-        <v>91.7563</v>
+        <v>90.9699</v>
       </c>
       <c r="S113">
-        <v>28.0369</v>
+        <v>29.3916</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7770,10 +7770,10 @@
         <v>46</v>
       </c>
       <c r="R114">
-        <v>90.95659999999999</v>
+        <v>89.9667</v>
       </c>
       <c r="S114">
-        <v>28.5849</v>
+        <v>30.8671</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7829,10 +7829,10 @@
         <v>46</v>
       </c>
       <c r="R115">
-        <v>91.76860000000001</v>
+        <v>91.0913</v>
       </c>
       <c r="S115">
-        <v>29.4042</v>
+        <v>31.0156</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -7888,10 +7888,10 @@
         <v>46</v>
       </c>
       <c r="R116">
-        <v>88.1532</v>
+        <v>87.05159999999999</v>
       </c>
       <c r="S116">
-        <v>27.4338</v>
+        <v>27.9509</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7947,10 +7947,10 @@
         <v>46</v>
       </c>
       <c r="R117">
-        <v>87.6413</v>
+        <v>86.0038</v>
       </c>
       <c r="S117">
-        <v>27.3532</v>
+        <v>28.4244</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8006,10 +8006,10 @@
         <v>46</v>
       </c>
       <c r="R118">
-        <v>88.4933</v>
+        <v>87.4693</v>
       </c>
       <c r="S118">
-        <v>28.8242</v>
+        <v>30.1081</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8065,10 +8065,10 @@
         <v>59</v>
       </c>
       <c r="R119">
-        <v>85.9855</v>
+        <v>83.129</v>
       </c>
       <c r="S119">
-        <v>22.313</v>
+        <v>22.1619</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8124,10 +8124,10 @@
         <v>59</v>
       </c>
       <c r="R120">
-        <v>87.6508</v>
+        <v>85.9243</v>
       </c>
       <c r="S120">
-        <v>23.345</v>
+        <v>23.0548</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8183,10 +8183,10 @@
         <v>59</v>
       </c>
       <c r="R121">
-        <v>86.28189999999999</v>
+        <v>83.6293</v>
       </c>
       <c r="S121">
-        <v>23.3915</v>
+        <v>23.1793</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8242,10 +8242,10 @@
         <v>59</v>
       </c>
       <c r="R122">
-        <v>84.85680000000001</v>
+        <v>81.54949999999999</v>
       </c>
       <c r="S122">
-        <v>22.1809</v>
+        <v>21.9362</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8301,10 +8301,10 @@
         <v>59</v>
       </c>
       <c r="R123">
-        <v>86.66240000000001</v>
+        <v>84.7389</v>
       </c>
       <c r="S123">
-        <v>23.2379</v>
+        <v>22.7601</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8360,10 +8360,10 @@
         <v>59</v>
       </c>
       <c r="R124">
-        <v>85.6302</v>
+        <v>82.6026</v>
       </c>
       <c r="S124">
-        <v>23.5891</v>
+        <v>23.3029</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8419,10 +8419,10 @@
         <v>46</v>
       </c>
       <c r="R125">
-        <v>85.9855</v>
+        <v>83.08</v>
       </c>
       <c r="S125">
-        <v>22.313</v>
+        <v>22.3266</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8478,10 +8478,10 @@
         <v>46</v>
       </c>
       <c r="R126">
-        <v>87.6508</v>
+        <v>85.9085</v>
       </c>
       <c r="S126">
-        <v>23.345</v>
+        <v>23.1801</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8537,10 +8537,10 @@
         <v>46</v>
       </c>
       <c r="R127">
-        <v>86.28189999999999</v>
+        <v>83.6156</v>
       </c>
       <c r="S127">
-        <v>23.3915</v>
+        <v>23.3045</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8596,10 +8596,10 @@
         <v>46</v>
       </c>
       <c r="R128">
-        <v>84.85680000000001</v>
+        <v>81.5149</v>
       </c>
       <c r="S128">
-        <v>22.1809</v>
+        <v>22.1198</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8655,10 +8655,10 @@
         <v>46</v>
       </c>
       <c r="R129">
-        <v>86.66240000000001</v>
+        <v>84.727</v>
       </c>
       <c r="S129">
-        <v>23.2379</v>
+        <v>22.9239</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8714,10 +8714,10 @@
         <v>46</v>
       </c>
       <c r="R130">
-        <v>85.6302</v>
+        <v>82.6367</v>
       </c>
       <c r="S130">
-        <v>23.5891</v>
+        <v>23.4487</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8773,10 +8773,10 @@
         <v>59</v>
       </c>
       <c r="R131">
-        <v>86.2132</v>
+        <v>83.3489</v>
       </c>
       <c r="S131">
-        <v>22.7848</v>
+        <v>23.0016</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8832,10 +8832,10 @@
         <v>59</v>
       </c>
       <c r="R132">
-        <v>87.85339999999999</v>
+        <v>86.14749999999999</v>
       </c>
       <c r="S132">
-        <v>23.787</v>
+        <v>23.8039</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8891,10 +8891,10 @@
         <v>59</v>
       </c>
       <c r="R133">
-        <v>86.5552</v>
+        <v>84.0748</v>
       </c>
       <c r="S133">
-        <v>23.8853</v>
+        <v>23.9057</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8950,10 +8950,10 @@
         <v>59</v>
       </c>
       <c r="R134">
-        <v>84.9603</v>
+        <v>81.57599999999999</v>
       </c>
       <c r="S134">
-        <v>22.5111</v>
+        <v>22.2383</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -9009,10 +9009,10 @@
         <v>59</v>
       </c>
       <c r="R135">
-        <v>86.71129999999999</v>
+        <v>84.7383</v>
       </c>
       <c r="S135">
-        <v>23.6095</v>
+        <v>23.1157</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9068,10 +9068,10 @@
         <v>59</v>
       </c>
       <c r="R136">
-        <v>85.8586</v>
+        <v>82.9576</v>
       </c>
       <c r="S136">
-        <v>24.0039</v>
+        <v>23.7803</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9127,10 +9127,10 @@
         <v>46</v>
       </c>
       <c r="R137">
-        <v>86.2132</v>
+        <v>83.2953</v>
       </c>
       <c r="S137">
-        <v>22.7848</v>
+        <v>23.1068</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9186,10 +9186,10 @@
         <v>46</v>
       </c>
       <c r="R138">
-        <v>87.85339999999999</v>
+        <v>86.1113</v>
       </c>
       <c r="S138">
-        <v>23.787</v>
+        <v>23.8836</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9245,10 +9245,10 @@
         <v>46</v>
       </c>
       <c r="R139">
-        <v>86.5552</v>
+        <v>84.06480000000001</v>
       </c>
       <c r="S139">
-        <v>23.8853</v>
+        <v>23.9982</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9304,10 +9304,10 @@
         <v>46</v>
       </c>
       <c r="R140">
-        <v>84.9603</v>
+        <v>81.5829</v>
       </c>
       <c r="S140">
-        <v>22.5111</v>
+        <v>22.4231</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -9363,10 +9363,10 @@
         <v>46</v>
       </c>
       <c r="R141">
-        <v>86.71129999999999</v>
+        <v>84.7522</v>
       </c>
       <c r="S141">
-        <v>23.6095</v>
+        <v>23.2856</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9422,10 +9422,10 @@
         <v>46</v>
       </c>
       <c r="R142">
-        <v>85.8586</v>
+        <v>82.9973</v>
       </c>
       <c r="S142">
-        <v>24.0039</v>
+        <v>23.9188</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -9481,10 +9481,10 @@
         <v>59</v>
       </c>
       <c r="R143">
-        <v>89.0226</v>
+        <v>87.6819</v>
       </c>
       <c r="S143">
-        <v>24.8926</v>
+        <v>25.4616</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -9540,10 +9540,10 @@
         <v>59</v>
       </c>
       <c r="R144">
-        <v>90.2407</v>
+        <v>89.3896</v>
       </c>
       <c r="S144">
-        <v>25.7447</v>
+        <v>25.9973</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9599,10 +9599,10 @@
         <v>59</v>
       </c>
       <c r="R145">
-        <v>89.40470000000001</v>
+        <v>88.07250000000001</v>
       </c>
       <c r="S145">
-        <v>26.0982</v>
+        <v>26.8122</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -9658,10 +9658,10 @@
         <v>59</v>
       </c>
       <c r="R146">
-        <v>86.0924</v>
+        <v>83.9114</v>
       </c>
       <c r="S146">
-        <v>24.0217</v>
+        <v>23.5932</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -9717,10 +9717,10 @@
         <v>59</v>
       </c>
       <c r="R147">
-        <v>87.4068</v>
+        <v>86.0478</v>
       </c>
       <c r="S147">
-        <v>25.3674</v>
+        <v>25.1903</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -9776,10 +9776,10 @@
         <v>59</v>
       </c>
       <c r="R148">
-        <v>86.79559999999999</v>
+        <v>84.771</v>
       </c>
       <c r="S148">
-        <v>25.3977</v>
+        <v>25.4599</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -9835,10 +9835,10 @@
         <v>46</v>
       </c>
       <c r="R149">
-        <v>89.0226</v>
+        <v>87.5848</v>
       </c>
       <c r="S149">
-        <v>24.8926</v>
+        <v>25.5653</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -9894,10 +9894,10 @@
         <v>46</v>
       </c>
       <c r="R150">
-        <v>90.2407</v>
+        <v>89.3502</v>
       </c>
       <c r="S150">
-        <v>25.7447</v>
+        <v>26.0546</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -9953,10 +9953,10 @@
         <v>46</v>
       </c>
       <c r="R151">
-        <v>89.40470000000001</v>
+        <v>87.9866</v>
       </c>
       <c r="S151">
-        <v>26.0982</v>
+        <v>26.8815</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10012,10 +10012,10 @@
         <v>46</v>
       </c>
       <c r="R152">
-        <v>86.0924</v>
+        <v>83.85939999999999</v>
       </c>
       <c r="S152">
-        <v>24.0217</v>
+        <v>23.7171</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10071,10 +10071,10 @@
         <v>46</v>
       </c>
       <c r="R153">
-        <v>87.4068</v>
+        <v>86.0575</v>
       </c>
       <c r="S153">
-        <v>25.3674</v>
+        <v>25.2453</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -10130,10 +10130,10 @@
         <v>46</v>
       </c>
       <c r="R154">
-        <v>86.79559999999999</v>
+        <v>84.7469</v>
       </c>
       <c r="S154">
-        <v>25.3977</v>
+        <v>25.5027</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="1" customFormat="1">
@@ -10200,10 +10200,10 @@
         <v>220</v>
       </c>
       <c r="R156" s="1">
-        <v>84.8492</v>
+        <v>81.5149</v>
       </c>
       <c r="S156" s="1">
-        <v>21.86</v>
+        <v>21.8291</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="1" customFormat="1">
@@ -10211,10 +10211,10 @@
         <v>221</v>
       </c>
       <c r="R157" s="1">
-        <v>92.239</v>
+        <v>91.0955</v>
       </c>
       <c r="S157" s="1">
-        <v>29.7742</v>
+        <v>31.1144</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="1" customFormat="1">
@@ -10254,10 +10254,10 @@
         <v>226</v>
       </c>
       <c r="R162" s="1">
-        <v>87.56209150326792</v>
+        <v>85.59008627450984</v>
       </c>
       <c r="S162" s="1">
-        <v>24.70139215686274</v>
+        <v>24.91524967320261</v>
       </c>
     </row>
     <row r="163" spans="17:19" s="1" customFormat="1">
@@ -10265,10 +10265,10 @@
         <v>227</v>
       </c>
       <c r="R163" s="1">
-        <v>1.808602244610144</v>
+        <v>2.42337092610642</v>
       </c>
       <c r="S163" s="1">
-        <v>1.901922603132025</v>
+        <v>2.353825609710979</v>
       </c>
     </row>
     <row r="164" spans="17:19" s="1" customFormat="1">
@@ -10276,10 +10276,10 @@
         <v>228</v>
       </c>
       <c r="R164" s="1">
-        <v>2.065508273683304</v>
+        <v>2.831368715220165</v>
       </c>
       <c r="S164" s="1">
-        <v>7.699657537737678</v>
+        <v>9.44732900767443</v>
       </c>
     </row>
     <row r="165" spans="17:19" s="1" customFormat="1"/>

--- a/dcd_opamp_stability_pre_tsmc2p_meas.xlsx
+++ b/dcd_opamp_stability_pre_tsmc2p_meas.xlsx
@@ -1162,10 +1162,10 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>85.8583</v>
+        <v>86.7676</v>
       </c>
       <c r="S2">
-        <v>25.5712</v>
+        <v>24.6222</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1221,10 +1221,10 @@
         <v>46</v>
       </c>
       <c r="R3">
-        <v>89.74630000000001</v>
+        <v>90.4169</v>
       </c>
       <c r="S3">
-        <v>29.2998</v>
+        <v>28.76</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1280,10 +1280,10 @@
         <v>46</v>
       </c>
       <c r="R4">
-        <v>85.5117</v>
+        <v>86.7276</v>
       </c>
       <c r="S4">
-        <v>26.2739</v>
+        <v>24.8336</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1339,10 +1339,10 @@
         <v>59</v>
       </c>
       <c r="R5">
-        <v>86.1319</v>
+        <v>86.83450000000001</v>
       </c>
       <c r="S5">
-        <v>24.3746</v>
+        <v>23.9418</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1398,10 +1398,10 @@
         <v>59</v>
       </c>
       <c r="R6">
-        <v>85.7881</v>
+        <v>86.5183</v>
       </c>
       <c r="S6">
-        <v>25.0399</v>
+        <v>24.3706</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1457,10 +1457,10 @@
         <v>59</v>
       </c>
       <c r="R7">
-        <v>86.4473</v>
+        <v>87.14619999999999</v>
       </c>
       <c r="S7">
-        <v>25.1422</v>
+        <v>24.6623</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1516,10 +1516,10 @@
         <v>59</v>
       </c>
       <c r="R8">
-        <v>85.9235</v>
+        <v>86.6598</v>
       </c>
       <c r="S8">
-        <v>25.5773</v>
+        <v>24.9378</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1575,10 +1575,10 @@
         <v>59</v>
       </c>
       <c r="R9">
-        <v>89.7987</v>
+        <v>90.3497</v>
       </c>
       <c r="S9">
-        <v>27.4988</v>
+        <v>27.2302</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1634,10 +1634,10 @@
         <v>59</v>
       </c>
       <c r="R10">
-        <v>86.73090000000001</v>
+        <v>87.43340000000001</v>
       </c>
       <c r="S10">
-        <v>27.0936</v>
+        <v>25.4291</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1693,10 +1693,10 @@
         <v>46</v>
       </c>
       <c r="R11">
-        <v>90.9538</v>
+        <v>91.22880000000001</v>
       </c>
       <c r="S11">
-        <v>29.5003</v>
+        <v>29.0258</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1752,10 +1752,10 @@
         <v>46</v>
       </c>
       <c r="R12">
-        <v>89.98480000000001</v>
+        <v>90.67</v>
       </c>
       <c r="S12">
-        <v>30.9626</v>
+        <v>29.8352</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1811,10 +1811,10 @@
         <v>46</v>
       </c>
       <c r="R13">
-        <v>91.0844</v>
+        <v>91.422</v>
       </c>
       <c r="S13">
-        <v>31.1144</v>
+        <v>30.1523</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1870,10 +1870,10 @@
         <v>46</v>
       </c>
       <c r="R14">
-        <v>87.1268</v>
+        <v>87.7988</v>
       </c>
       <c r="S14">
-        <v>28.003</v>
+        <v>26.2764</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1929,10 +1929,10 @@
         <v>46</v>
       </c>
       <c r="R15">
-        <v>86.0896</v>
+        <v>87.1491</v>
       </c>
       <c r="S15">
-        <v>28.4314</v>
+        <v>26.1409</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1988,10 +1988,10 @@
         <v>46</v>
       </c>
       <c r="R16">
-        <v>87.5098</v>
+        <v>88.10250000000001</v>
       </c>
       <c r="S16">
-        <v>30.1699</v>
+        <v>27.6401</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2047,10 +2047,10 @@
         <v>59</v>
       </c>
       <c r="R17">
-        <v>83.1939</v>
+        <v>84.4066</v>
       </c>
       <c r="S17">
-        <v>21.8291</v>
+        <v>21.8817</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2106,10 +2106,10 @@
         <v>59</v>
       </c>
       <c r="R18">
-        <v>85.8051</v>
+        <v>86.49379999999999</v>
       </c>
       <c r="S18">
-        <v>22.9823</v>
+        <v>22.7985</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2165,10 +2165,10 @@
         <v>59</v>
       </c>
       <c r="R19">
-        <v>83.8659</v>
+        <v>85.0896</v>
       </c>
       <c r="S19">
-        <v>23.0325</v>
+        <v>22.8732</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2224,10 +2224,10 @@
         <v>59</v>
       </c>
       <c r="R20">
-        <v>82.3882</v>
+        <v>83.718</v>
       </c>
       <c r="S20">
-        <v>21.9305</v>
+        <v>21.8936</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2283,10 +2283,10 @@
         <v>59</v>
       </c>
       <c r="R21">
-        <v>85.0628</v>
+        <v>85.8329</v>
       </c>
       <c r="S21">
-        <v>23.3116</v>
+        <v>23.0336</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2342,10 +2342,10 @@
         <v>59</v>
       </c>
       <c r="R22">
-        <v>83.55459999999999</v>
+        <v>84.8185</v>
       </c>
       <c r="S22">
-        <v>23.4876</v>
+        <v>23.0859</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2401,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="R23">
-        <v>83.1553</v>
+        <v>84.2235</v>
       </c>
       <c r="S23">
-        <v>22.0209</v>
+        <v>22.1081</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2460,10 +2460,10 @@
         <v>46</v>
       </c>
       <c r="R24">
-        <v>85.81999999999999</v>
+        <v>86.42919999999999</v>
       </c>
       <c r="S24">
-        <v>23.1123</v>
+        <v>22.9962</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2519,10 +2519,10 @@
         <v>46</v>
       </c>
       <c r="R25">
-        <v>83.834</v>
+        <v>84.9081</v>
       </c>
       <c r="S25">
-        <v>23.1681</v>
+        <v>23.0674</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2578,10 +2578,10 @@
         <v>46</v>
       </c>
       <c r="R26">
-        <v>82.3464</v>
+        <v>83.51860000000001</v>
       </c>
       <c r="S26">
-        <v>22.0579</v>
+        <v>22.0541</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2637,10 +2637,10 @@
         <v>46</v>
       </c>
       <c r="R27">
-        <v>85.07259999999999</v>
+        <v>85.7503</v>
       </c>
       <c r="S27">
-        <v>23.3893</v>
+        <v>23.1791</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2696,10 +2696,10 @@
         <v>46</v>
       </c>
       <c r="R28">
-        <v>83.5166</v>
+        <v>84.6285</v>
       </c>
       <c r="S28">
-        <v>23.5534</v>
+        <v>23.2428</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2755,10 +2755,10 @@
         <v>59</v>
       </c>
       <c r="R29">
-        <v>83.4659</v>
+        <v>84.682</v>
       </c>
       <c r="S29">
-        <v>22.8282</v>
+        <v>23.0191</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2814,10 +2814,10 @@
         <v>59</v>
       </c>
       <c r="R30">
-        <v>86.0933</v>
+        <v>86.7808</v>
       </c>
       <c r="S30">
-        <v>23.8539</v>
+        <v>23.7851</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2873,10 +2873,10 @@
         <v>59</v>
       </c>
       <c r="R31">
-        <v>84.2801</v>
+        <v>85.4996</v>
       </c>
       <c r="S31">
-        <v>23.8357</v>
+        <v>23.651</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2932,10 +2932,10 @@
         <v>59</v>
       </c>
       <c r="R32">
-        <v>82.4106</v>
+        <v>83.7612</v>
       </c>
       <c r="S32">
-        <v>22.4639</v>
+        <v>22.5606</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2991,10 +2991,10 @@
         <v>59</v>
       </c>
       <c r="R33">
-        <v>85.1408</v>
+        <v>85.9238</v>
       </c>
       <c r="S33">
-        <v>23.7685</v>
+        <v>23.6175</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3050,10 +3050,10 @@
         <v>59</v>
       </c>
       <c r="R34">
-        <v>83.7024</v>
+        <v>84.9766</v>
       </c>
       <c r="S34">
-        <v>24.0568</v>
+        <v>23.6878</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3109,10 +3109,10 @@
         <v>46</v>
       </c>
       <c r="R35">
-        <v>83.4192</v>
+        <v>84.4927</v>
       </c>
       <c r="S35">
-        <v>22.9535</v>
+        <v>23.1555</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3168,10 +3168,10 @@
         <v>46</v>
       </c>
       <c r="R36">
-        <v>86.0853</v>
+        <v>86.6953</v>
       </c>
       <c r="S36">
-        <v>23.928</v>
+        <v>23.9049</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3227,10 +3227,10 @@
         <v>46</v>
       </c>
       <c r="R37">
-        <v>84.25060000000001</v>
+        <v>85.3197</v>
       </c>
       <c r="S37">
-        <v>23.936</v>
+        <v>23.8149</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3286,10 +3286,10 @@
         <v>46</v>
       </c>
       <c r="R38">
-        <v>82.37909999999999</v>
+        <v>83.56610000000001</v>
       </c>
       <c r="S38">
-        <v>22.5893</v>
+        <v>22.6872</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3345,10 +3345,10 @@
         <v>46</v>
       </c>
       <c r="R39">
-        <v>85.1506</v>
+        <v>85.83759999999999</v>
       </c>
       <c r="S39">
-        <v>23.8456</v>
+        <v>23.7312</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3404,10 +3404,10 @@
         <v>46</v>
       </c>
       <c r="R40">
-        <v>83.6673</v>
+        <v>84.785</v>
       </c>
       <c r="S40">
-        <v>24.1202</v>
+        <v>23.8335</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3463,10 +3463,10 @@
         <v>59</v>
       </c>
       <c r="R41">
-        <v>88.00879999999999</v>
+        <v>88.9714</v>
       </c>
       <c r="S41">
-        <v>25.5674</v>
+        <v>25.7153</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3522,10 +3522,10 @@
         <v>59</v>
       </c>
       <c r="R42">
-        <v>89.6116</v>
+        <v>90.1399</v>
       </c>
       <c r="S42">
-        <v>26.1121</v>
+        <v>26.0667</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3581,10 +3581,10 @@
         <v>59</v>
       </c>
       <c r="R43">
-        <v>88.3224</v>
+        <v>89.2773</v>
       </c>
       <c r="S43">
-        <v>26.911</v>
+        <v>26.826</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3640,10 +3640,10 @@
         <v>59</v>
       </c>
       <c r="R44">
-        <v>84.3095</v>
+        <v>85.673</v>
       </c>
       <c r="S44">
-        <v>23.3514</v>
+        <v>22.4004</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3699,10 +3699,10 @@
         <v>59</v>
       </c>
       <c r="R45">
-        <v>86.2419</v>
+        <v>87.0091</v>
       </c>
       <c r="S45">
-        <v>25.1187</v>
+        <v>23.8395</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3758,10 +3758,10 @@
         <v>59</v>
       </c>
       <c r="R46">
-        <v>85.00960000000001</v>
+        <v>86.2479</v>
       </c>
       <c r="S46">
-        <v>25.3037</v>
+        <v>23.9671</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3817,10 +3817,10 @@
         <v>46</v>
       </c>
       <c r="R47">
-        <v>87.9226</v>
+        <v>88.7919</v>
       </c>
       <c r="S47">
-        <v>25.6897</v>
+        <v>25.8448</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3876,10 +3876,10 @@
         <v>46</v>
       </c>
       <c r="R48">
-        <v>89.58929999999999</v>
+        <v>90.08450000000001</v>
       </c>
       <c r="S48">
-        <v>26.1886</v>
+        <v>26.1758</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3935,10 +3935,10 @@
         <v>46</v>
       </c>
       <c r="R49">
-        <v>88.2334</v>
+        <v>89.0822</v>
       </c>
       <c r="S49">
-        <v>26.9878</v>
+        <v>26.9175</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3994,10 +3994,10 @@
         <v>46</v>
       </c>
       <c r="R50">
-        <v>84.24939999999999</v>
+        <v>85.4423</v>
       </c>
       <c r="S50">
-        <v>23.5212</v>
+        <v>22.8273</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4053,10 +4053,10 @@
         <v>46</v>
       </c>
       <c r="R51">
-        <v>86.2527</v>
+        <v>86.9258</v>
       </c>
       <c r="S51">
-        <v>25.2138</v>
+        <v>24.2568</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4112,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="R52">
-        <v>84.98739999999999</v>
+        <v>86.0686</v>
       </c>
       <c r="S52">
-        <v>25.3647</v>
+        <v>24.3067</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4171,10 +4171,10 @@
         <v>34</v>
       </c>
       <c r="R53">
-        <v>85.5471</v>
+        <v>86.4423</v>
       </c>
       <c r="S53">
-        <v>25.4762</v>
+        <v>24.9714</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4230,10 +4230,10 @@
         <v>46</v>
       </c>
       <c r="R54">
-        <v>89.71939999999999</v>
+        <v>90.3777</v>
       </c>
       <c r="S54">
-        <v>29.1836</v>
+        <v>28.7408</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4289,10 +4289,10 @@
         <v>46</v>
       </c>
       <c r="R55">
-        <v>85.3207</v>
+        <v>86.53919999999999</v>
       </c>
       <c r="S55">
-        <v>26.2925</v>
+        <v>25.1463</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4348,10 +4348,10 @@
         <v>59</v>
       </c>
       <c r="R56">
-        <v>85.96210000000001</v>
+        <v>86.6315</v>
       </c>
       <c r="S56">
-        <v>24.2473</v>
+        <v>24.1854</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4407,10 +4407,10 @@
         <v>59</v>
       </c>
       <c r="R57">
-        <v>84.8139</v>
+        <v>85.5025</v>
       </c>
       <c r="S57">
-        <v>23.6358</v>
+        <v>23.8014</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4466,10 +4466,10 @@
         <v>59</v>
       </c>
       <c r="R58">
-        <v>86.27509999999999</v>
+        <v>86.9453</v>
       </c>
       <c r="S58">
-        <v>24.9438</v>
+        <v>24.8411</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4525,10 +4525,10 @@
         <v>59</v>
       </c>
       <c r="R59">
-        <v>85.02760000000001</v>
+        <v>85.7265</v>
       </c>
       <c r="S59">
-        <v>24.1725</v>
+        <v>24.2835</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4584,10 +4584,10 @@
         <v>59</v>
       </c>
       <c r="R60">
-        <v>89.5393</v>
+        <v>90.1086</v>
       </c>
       <c r="S60">
-        <v>27.311</v>
+        <v>27.127</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4643,10 +4643,10 @@
         <v>59</v>
       </c>
       <c r="R61">
-        <v>86.4888</v>
+        <v>87.2056</v>
       </c>
       <c r="S61">
-        <v>26.9903</v>
+        <v>26.0138</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4702,10 +4702,10 @@
         <v>46</v>
       </c>
       <c r="R62">
-        <v>90.9796</v>
+        <v>91.2623</v>
       </c>
       <c r="S62">
-        <v>29.3637</v>
+        <v>28.9821</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4761,10 +4761,10 @@
         <v>46</v>
       </c>
       <c r="R63">
-        <v>89.9654</v>
+        <v>90.6533</v>
       </c>
       <c r="S63">
-        <v>30.8451</v>
+        <v>29.8088</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4820,10 +4820,10 @@
         <v>46</v>
       </c>
       <c r="R64">
-        <v>91.0955</v>
+        <v>91.4414</v>
       </c>
       <c r="S64">
-        <v>30.9925</v>
+        <v>30.1108</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4879,10 +4879,10 @@
         <v>46</v>
       </c>
       <c r="R65">
-        <v>87.03149999999999</v>
+        <v>87.7094</v>
       </c>
       <c r="S65">
-        <v>27.9289</v>
+        <v>26.527</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4938,10 +4938,10 @@
         <v>46</v>
       </c>
       <c r="R66">
-        <v>85.9834</v>
+        <v>87.0515</v>
       </c>
       <c r="S66">
-        <v>28.4171</v>
+        <v>26.3651</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4997,10 +4997,10 @@
         <v>46</v>
       </c>
       <c r="R67">
-        <v>87.45959999999999</v>
+        <v>88.0582</v>
       </c>
       <c r="S67">
-        <v>30.0884</v>
+        <v>27.8232</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5056,10 +5056,10 @@
         <v>59</v>
       </c>
       <c r="R68">
-        <v>83.3704</v>
+        <v>84.3145</v>
       </c>
       <c r="S68">
-        <v>22.3352</v>
+        <v>22.7278</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5115,10 +5115,10 @@
         <v>59</v>
       </c>
       <c r="R69">
-        <v>86.2564</v>
+        <v>86.7945</v>
       </c>
       <c r="S69">
-        <v>22.9821</v>
+        <v>23.1602</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5174,10 +5174,10 @@
         <v>59</v>
       </c>
       <c r="R70">
-        <v>83.41589999999999</v>
+        <v>84.5647</v>
       </c>
       <c r="S70">
-        <v>23.2064</v>
+        <v>23.3936</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5233,10 +5233,10 @@
         <v>59</v>
       </c>
       <c r="R71">
-        <v>82.7234</v>
+        <v>83.56950000000001</v>
       </c>
       <c r="S71">
-        <v>22.0691</v>
+        <v>22.5732</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5292,10 +5292,10 @@
         <v>59</v>
       </c>
       <c r="R72">
-        <v>85.90649999999999</v>
+        <v>86.411</v>
       </c>
       <c r="S72">
-        <v>22.3663</v>
+        <v>22.6547</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5351,10 +5351,10 @@
         <v>59</v>
       </c>
       <c r="R73">
-        <v>81.7792</v>
+        <v>82.9375</v>
       </c>
       <c r="S73">
-        <v>22.7948</v>
+        <v>23.2022</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5410,10 +5410,10 @@
         <v>46</v>
       </c>
       <c r="R74">
-        <v>83.24299999999999</v>
+        <v>84.1079</v>
       </c>
       <c r="S74">
-        <v>22.4949</v>
+        <v>22.8414</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5469,10 +5469,10 @@
         <v>46</v>
       </c>
       <c r="R75">
-        <v>86.16249999999999</v>
+        <v>86.661</v>
       </c>
       <c r="S75">
-        <v>23.1201</v>
+        <v>23.274</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5528,10 +5528,10 @@
         <v>46</v>
       </c>
       <c r="R76">
-        <v>83.4134</v>
+        <v>84.4329</v>
       </c>
       <c r="S76">
-        <v>23.3433</v>
+        <v>23.5061</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5587,10 +5587,10 @@
         <v>46</v>
       </c>
       <c r="R77">
-        <v>82.3282</v>
+        <v>83.129</v>
       </c>
       <c r="S77">
-        <v>22.2117</v>
+        <v>22.6555</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5646,10 +5646,10 @@
         <v>46</v>
       </c>
       <c r="R78">
-        <v>85.58499999999999</v>
+        <v>86.06699999999999</v>
       </c>
       <c r="S78">
-        <v>22.5156</v>
+        <v>22.764</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5705,10 +5705,10 @@
         <v>46</v>
       </c>
       <c r="R79">
-        <v>81.82599999999999</v>
+        <v>82.8591</v>
       </c>
       <c r="S79">
-        <v>23.0171</v>
+        <v>23.3589</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5764,10 +5764,10 @@
         <v>59</v>
       </c>
       <c r="R80">
-        <v>83.47410000000001</v>
+        <v>84.4414</v>
       </c>
       <c r="S80">
-        <v>23.0615</v>
+        <v>23.5963</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5823,10 +5823,10 @@
         <v>59</v>
       </c>
       <c r="R81">
-        <v>86.38339999999999</v>
+        <v>86.9342</v>
       </c>
       <c r="S81">
-        <v>23.6407</v>
+        <v>23.9275</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -5882,10 +5882,10 @@
         <v>59</v>
       </c>
       <c r="R82">
-        <v>83.85760000000001</v>
+        <v>85.0098</v>
       </c>
       <c r="S82">
-        <v>23.8954</v>
+        <v>24.0607</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5941,10 +5941,10 @@
         <v>59</v>
       </c>
       <c r="R83">
-        <v>81.9088</v>
+        <v>82.8646</v>
       </c>
       <c r="S83">
-        <v>22.0858</v>
+        <v>22.6173</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6000,10 +6000,10 @@
         <v>59</v>
       </c>
       <c r="R84">
-        <v>85.2004</v>
+        <v>85.77030000000001</v>
       </c>
       <c r="S84">
-        <v>22.5315</v>
+        <v>22.8352</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6059,10 +6059,10 @@
         <v>59</v>
       </c>
       <c r="R85">
-        <v>82.12779999999999</v>
+        <v>83.3096</v>
       </c>
       <c r="S85">
-        <v>23.2244</v>
+        <v>23.5834</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6118,10 +6118,10 @@
         <v>46</v>
       </c>
       <c r="R86">
-        <v>83.34520000000001</v>
+        <v>84.236</v>
       </c>
       <c r="S86">
-        <v>23.1733</v>
+        <v>23.6315</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6177,10 +6177,10 @@
         <v>46</v>
       </c>
       <c r="R87">
-        <v>86.2717</v>
+        <v>86.78449999999999</v>
       </c>
       <c r="S87">
-        <v>23.7446</v>
+        <v>23.9815</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6236,10 +6236,10 @@
         <v>46</v>
       </c>
       <c r="R88">
-        <v>83.8622</v>
+        <v>84.88330000000001</v>
       </c>
       <c r="S88">
-        <v>24.0036</v>
+        <v>24.1437</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6295,10 +6295,10 @@
         <v>46</v>
       </c>
       <c r="R89">
-        <v>81.67100000000001</v>
+        <v>82.56399999999999</v>
       </c>
       <c r="S89">
-        <v>22.2533</v>
+        <v>22.714</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6354,10 +6354,10 @@
         <v>46</v>
       </c>
       <c r="R90">
-        <v>85.0055</v>
+        <v>85.541</v>
       </c>
       <c r="S90">
-        <v>22.7069</v>
+        <v>22.9631</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6413,10 +6413,10 @@
         <v>46</v>
       </c>
       <c r="R91">
-        <v>82.2017</v>
+        <v>83.25069999999999</v>
       </c>
       <c r="S91">
-        <v>23.4517</v>
+        <v>23.7462</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6472,10 +6472,10 @@
         <v>59</v>
       </c>
       <c r="R92">
-        <v>87.5044</v>
+        <v>88.4644</v>
       </c>
       <c r="S92">
-        <v>25.3724</v>
+        <v>25.6194</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6531,10 +6531,10 @@
         <v>59</v>
       </c>
       <c r="R93">
-        <v>89.2898</v>
+        <v>89.84099999999999</v>
       </c>
       <c r="S93">
-        <v>25.8809</v>
+        <v>25.9407</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6590,7 +6590,7 @@
         <v>59</v>
       </c>
       <c r="R94">
-        <v>87.9524</v>
+        <v>88.9209</v>
       </c>
       <c r="S94">
         <v>26.7367</v>
@@ -6649,10 +6649,10 @@
         <v>59</v>
       </c>
       <c r="R95">
-        <v>83.42319999999999</v>
+        <v>84.7658</v>
       </c>
       <c r="S95">
-        <v>23.5761</v>
+        <v>23.4274</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6708,10 +6708,10 @@
         <v>59</v>
       </c>
       <c r="R96">
-        <v>85.786</v>
+        <v>86.56019999999999</v>
       </c>
       <c r="S96">
-        <v>24.9846</v>
+        <v>24.5832</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6767,10 +6767,10 @@
         <v>59</v>
       </c>
       <c r="R97">
-        <v>84.5257</v>
+        <v>85.7749</v>
       </c>
       <c r="S97">
-        <v>25.4424</v>
+        <v>24.7318</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6826,10 +6826,10 @@
         <v>46</v>
       </c>
       <c r="R98">
-        <v>87.40779999999999</v>
+        <v>88.2854</v>
       </c>
       <c r="S98">
-        <v>25.4774</v>
+        <v>25.7197</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6885,10 +6885,10 @@
         <v>46</v>
       </c>
       <c r="R99">
-        <v>89.24209999999999</v>
+        <v>89.75709999999999</v>
       </c>
       <c r="S99">
-        <v>25.9418</v>
+        <v>26.016</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6944,10 +6944,10 @@
         <v>46</v>
       </c>
       <c r="R100">
-        <v>87.8686</v>
+        <v>88.7311</v>
       </c>
       <c r="S100">
-        <v>26.8073</v>
+        <v>26.8146</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7003,10 +7003,10 @@
         <v>46</v>
       </c>
       <c r="R101">
-        <v>83.4315</v>
+        <v>84.611</v>
       </c>
       <c r="S101">
-        <v>23.7206</v>
+        <v>23.6108</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7062,10 +7062,10 @@
         <v>46</v>
       </c>
       <c r="R102">
-        <v>85.8275</v>
+        <v>86.5059</v>
       </c>
       <c r="S102">
-        <v>25.0797</v>
+        <v>24.7546</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7121,10 +7121,10 @@
         <v>46</v>
       </c>
       <c r="R103">
-        <v>84.5265</v>
+        <v>85.6187</v>
       </c>
       <c r="S103">
-        <v>25.4962</v>
+        <v>24.9131</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7180,10 +7180,10 @@
         <v>34</v>
       </c>
       <c r="R104">
-        <v>85.6908</v>
+        <v>86.5964</v>
       </c>
       <c r="S104">
-        <v>25.5547</v>
+        <v>24.8658</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7239,10 +7239,10 @@
         <v>46</v>
       </c>
       <c r="R105">
-        <v>89.7197</v>
+        <v>90.381</v>
       </c>
       <c r="S105">
-        <v>29.2072</v>
+        <v>28.7455</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7298,10 +7298,10 @@
         <v>46</v>
       </c>
       <c r="R106">
-        <v>85.36069999999999</v>
+        <v>86.5813</v>
       </c>
       <c r="S106">
-        <v>26.2957</v>
+        <v>25.0898</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7357,10 +7357,10 @@
         <v>59</v>
       </c>
       <c r="R107">
-        <v>86.0389</v>
+        <v>86.7272</v>
       </c>
       <c r="S107">
-        <v>24.373</v>
+        <v>24.1455</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7416,10 +7416,10 @@
         <v>59</v>
       </c>
       <c r="R108">
-        <v>85.2632</v>
+        <v>85.9812</v>
       </c>
       <c r="S108">
-        <v>24.4906</v>
+        <v>24.3783</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7475,10 +7475,10 @@
         <v>59</v>
       </c>
       <c r="R109">
-        <v>86.3616</v>
+        <v>87.0472</v>
       </c>
       <c r="S109">
-        <v>25.0909</v>
+        <v>24.8055</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7534,10 +7534,10 @@
         <v>59</v>
       </c>
       <c r="R110">
-        <v>85.5013</v>
+        <v>86.2213</v>
       </c>
       <c r="S110">
-        <v>25.0276</v>
+        <v>24.8378</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7593,10 +7593,10 @@
         <v>59</v>
       </c>
       <c r="R111">
-        <v>89.61539999999999</v>
+        <v>90.1797</v>
       </c>
       <c r="S111">
-        <v>27.3991</v>
+        <v>27.1761</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7652,10 +7652,10 @@
         <v>59</v>
       </c>
       <c r="R112">
-        <v>86.6173</v>
+        <v>87.3347</v>
       </c>
       <c r="S112">
-        <v>27.1231</v>
+        <v>25.8432</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7711,10 +7711,10 @@
         <v>46</v>
       </c>
       <c r="R113">
-        <v>90.9699</v>
+        <v>91.25109999999999</v>
       </c>
       <c r="S113">
-        <v>29.3916</v>
+        <v>28.9923</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7770,10 +7770,10 @@
         <v>46</v>
       </c>
       <c r="R114">
-        <v>89.9667</v>
+        <v>90.6544</v>
       </c>
       <c r="S114">
-        <v>30.8671</v>
+        <v>29.8138</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7829,10 +7829,10 @@
         <v>46</v>
       </c>
       <c r="R115">
-        <v>91.0913</v>
+        <v>91.4358</v>
       </c>
       <c r="S115">
-        <v>31.0156</v>
+        <v>30.1191</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -7888,10 +7888,10 @@
         <v>46</v>
       </c>
       <c r="R116">
-        <v>87.05159999999999</v>
+        <v>87.72969999999999</v>
       </c>
       <c r="S116">
-        <v>27.9509</v>
+        <v>26.4846</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7947,10 +7947,10 @@
         <v>46</v>
       </c>
       <c r="R117">
-        <v>86.0038</v>
+        <v>87.071</v>
       </c>
       <c r="S117">
-        <v>28.4244</v>
+        <v>26.3276</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8006,10 +8006,10 @@
         <v>46</v>
       </c>
       <c r="R118">
-        <v>87.4693</v>
+        <v>88.0672</v>
       </c>
       <c r="S118">
-        <v>30.1081</v>
+        <v>27.7935</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8065,10 +8065,10 @@
         <v>59</v>
       </c>
       <c r="R119">
-        <v>83.129</v>
+        <v>84.2106</v>
       </c>
       <c r="S119">
-        <v>22.1619</v>
+        <v>22.4318</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8124,10 +8124,10 @@
         <v>59</v>
       </c>
       <c r="R120">
-        <v>85.9243</v>
+        <v>86.541</v>
       </c>
       <c r="S120">
-        <v>23.0548</v>
+        <v>23.1043</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8183,10 +8183,10 @@
         <v>59</v>
       </c>
       <c r="R121">
-        <v>83.6293</v>
+        <v>84.81910000000001</v>
       </c>
       <c r="S121">
-        <v>23.1793</v>
+        <v>23.2102</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8242,10 +8242,10 @@
         <v>59</v>
       </c>
       <c r="R122">
-        <v>81.54949999999999</v>
+        <v>82.6921</v>
       </c>
       <c r="S122">
-        <v>21.9362</v>
+        <v>22.3373</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8301,10 +8301,10 @@
         <v>59</v>
       </c>
       <c r="R123">
-        <v>84.7389</v>
+        <v>85.4131</v>
       </c>
       <c r="S123">
-        <v>22.7601</v>
+        <v>22.9396</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8360,10 +8360,10 @@
         <v>59</v>
       </c>
       <c r="R124">
-        <v>82.6026</v>
+        <v>83.8297</v>
       </c>
       <c r="S124">
-        <v>23.3029</v>
+        <v>23.433</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8419,10 +8419,10 @@
         <v>46</v>
       </c>
       <c r="R125">
-        <v>83.08</v>
+        <v>84.04949999999999</v>
       </c>
       <c r="S125">
-        <v>22.3266</v>
+        <v>22.5748</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8478,10 +8478,10 @@
         <v>46</v>
       </c>
       <c r="R126">
-        <v>85.9085</v>
+        <v>86.4649</v>
       </c>
       <c r="S126">
-        <v>23.1801</v>
+        <v>23.2332</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8537,10 +8537,10 @@
         <v>46</v>
       </c>
       <c r="R127">
-        <v>83.6156</v>
+        <v>84.666</v>
       </c>
       <c r="S127">
-        <v>23.3045</v>
+        <v>23.3465</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8596,10 +8596,10 @@
         <v>46</v>
       </c>
       <c r="R128">
-        <v>81.5149</v>
+        <v>82.5427</v>
       </c>
       <c r="S128">
-        <v>22.1198</v>
+        <v>22.4655</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8655,10 +8655,10 @@
         <v>46</v>
       </c>
       <c r="R129">
-        <v>84.727</v>
+        <v>85.3335</v>
       </c>
       <c r="S129">
-        <v>22.9239</v>
+        <v>23.0726</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8714,10 +8714,10 @@
         <v>46</v>
       </c>
       <c r="R130">
-        <v>82.6367</v>
+        <v>83.7214</v>
       </c>
       <c r="S130">
-        <v>23.4487</v>
+        <v>23.5517</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8773,10 +8773,10 @@
         <v>59</v>
       </c>
       <c r="R131">
-        <v>83.3489</v>
+        <v>84.4453</v>
       </c>
       <c r="S131">
-        <v>23.0016</v>
+        <v>23.4018</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8832,10 +8832,10 @@
         <v>59</v>
       </c>
       <c r="R132">
-        <v>86.14749999999999</v>
+        <v>86.7713</v>
       </c>
       <c r="S132">
-        <v>23.8039</v>
+        <v>23.9552</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8891,10 +8891,10 @@
         <v>59</v>
       </c>
       <c r="R133">
-        <v>84.0748</v>
+        <v>85.2628</v>
       </c>
       <c r="S133">
-        <v>23.9057</v>
+        <v>23.8991</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8950,10 +8950,10 @@
         <v>59</v>
       </c>
       <c r="R134">
-        <v>81.57599999999999</v>
+        <v>82.765</v>
       </c>
       <c r="S134">
-        <v>22.2383</v>
+        <v>22.6671</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -9009,10 +9009,10 @@
         <v>59</v>
       </c>
       <c r="R135">
-        <v>84.7383</v>
+        <v>85.43859999999999</v>
       </c>
       <c r="S135">
-        <v>23.1157</v>
+        <v>23.3096</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -9068,10 +9068,10 @@
         <v>59</v>
       </c>
       <c r="R136">
-        <v>82.9576</v>
+        <v>84.1917</v>
       </c>
       <c r="S136">
-        <v>23.7803</v>
+        <v>23.8408</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -9127,10 +9127,10 @@
         <v>46</v>
       </c>
       <c r="R137">
-        <v>83.2953</v>
+        <v>84.2821</v>
       </c>
       <c r="S137">
-        <v>23.1068</v>
+        <v>23.4588</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -9186,10 +9186,10 @@
         <v>46</v>
       </c>
       <c r="R138">
-        <v>86.1113</v>
+        <v>86.6765</v>
       </c>
       <c r="S138">
-        <v>23.8836</v>
+        <v>24.015</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -9245,10 +9245,10 @@
         <v>46</v>
       </c>
       <c r="R139">
-        <v>84.06480000000001</v>
+        <v>85.1127</v>
       </c>
       <c r="S139">
-        <v>23.9982</v>
+        <v>24.0082</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -9304,10 +9304,10 @@
         <v>46</v>
       </c>
       <c r="R140">
-        <v>81.5829</v>
+        <v>82.64960000000001</v>
       </c>
       <c r="S140">
-        <v>22.4231</v>
+        <v>22.784</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -9363,10 +9363,10 @@
         <v>46</v>
       </c>
       <c r="R141">
-        <v>84.7522</v>
+        <v>85.3801</v>
       </c>
       <c r="S141">
-        <v>23.2856</v>
+        <v>23.4392</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -9422,10 +9422,10 @@
         <v>46</v>
       </c>
       <c r="R142">
-        <v>82.9973</v>
+        <v>84.0856</v>
       </c>
       <c r="S142">
-        <v>23.9188</v>
+        <v>23.959</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -9481,10 +9481,10 @@
         <v>59</v>
       </c>
       <c r="R143">
-        <v>87.6819</v>
+        <v>88.6519</v>
       </c>
       <c r="S143">
-        <v>25.4616</v>
+        <v>25.6633</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -9540,10 +9540,10 @@
         <v>59</v>
       </c>
       <c r="R144">
-        <v>89.3896</v>
+        <v>89.93559999999999</v>
       </c>
       <c r="S144">
-        <v>25.9973</v>
+        <v>26.0086</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9599,10 +9599,10 @@
         <v>59</v>
       </c>
       <c r="R145">
-        <v>88.07250000000001</v>
+        <v>89.0403</v>
       </c>
       <c r="S145">
-        <v>26.8122</v>
+        <v>26.7739</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -9658,10 +9658,10 @@
         <v>59</v>
       </c>
       <c r="R146">
-        <v>83.9114</v>
+        <v>85.2869</v>
       </c>
       <c r="S146">
-        <v>23.5932</v>
+        <v>23.0812</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -9717,10 +9717,10 @@
         <v>59</v>
       </c>
       <c r="R147">
-        <v>86.0478</v>
+        <v>86.83240000000001</v>
       </c>
       <c r="S147">
-        <v>25.1903</v>
+        <v>24.3968</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -9776,10 +9776,10 @@
         <v>59</v>
       </c>
       <c r="R148">
-        <v>84.771</v>
+        <v>86.027</v>
       </c>
       <c r="S148">
-        <v>25.4599</v>
+        <v>24.4698</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -9835,10 +9835,10 @@
         <v>46</v>
       </c>
       <c r="R149">
-        <v>87.5848</v>
+        <v>88.4671</v>
       </c>
       <c r="S149">
-        <v>25.5653</v>
+        <v>25.771</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -9894,10 +9894,10 @@
         <v>46</v>
       </c>
       <c r="R150">
-        <v>89.3502</v>
+        <v>89.86150000000001</v>
       </c>
       <c r="S150">
-        <v>26.0546</v>
+        <v>26.0913</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -9953,10 +9953,10 @@
         <v>46</v>
       </c>
       <c r="R151">
-        <v>87.9866</v>
+        <v>88.8472</v>
       </c>
       <c r="S151">
-        <v>26.8815</v>
+        <v>26.8558</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -10012,10 +10012,10 @@
         <v>46</v>
       </c>
       <c r="R152">
-        <v>83.85939999999999</v>
+        <v>85.0633</v>
       </c>
       <c r="S152">
-        <v>23.7171</v>
+        <v>23.351</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -10071,10 +10071,10 @@
         <v>46</v>
       </c>
       <c r="R153">
-        <v>86.0575</v>
+        <v>86.7437</v>
       </c>
       <c r="S153">
-        <v>25.2453</v>
+        <v>24.6467</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -10130,10 +10130,10 @@
         <v>46</v>
       </c>
       <c r="R154">
-        <v>84.7469</v>
+        <v>85.84229999999999</v>
       </c>
       <c r="S154">
-        <v>25.5027</v>
+        <v>24.7167</v>
       </c>
     </row>
     <row r="155" spans="1:19" s="1" customFormat="1">
@@ -10200,10 +10200,10 @@
         <v>220</v>
       </c>
       <c r="R156" s="1">
-        <v>81.5149</v>
+        <v>82.5427</v>
       </c>
       <c r="S156" s="1">
-        <v>21.8291</v>
+        <v>21.8817</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="1" customFormat="1">
@@ -10211,10 +10211,10 @@
         <v>221</v>
       </c>
       <c r="R157" s="1">
-        <v>91.0955</v>
+        <v>91.4414</v>
       </c>
       <c r="S157" s="1">
-        <v>31.1144</v>
+        <v>30.1523</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="1" customFormat="1">
@@ -10254,10 +10254,10 @@
         <v>226</v>
       </c>
       <c r="R162" s="1">
-        <v>85.59008627450984</v>
+        <v>86.45235359477125</v>
       </c>
       <c r="S162" s="1">
-        <v>24.91524967320261</v>
+        <v>24.63957647058824</v>
       </c>
     </row>
     <row r="163" spans="17:19" s="1" customFormat="1">
@@ -10265,10 +10265,10 @@
         <v>227</v>
       </c>
       <c r="R163" s="1">
-        <v>2.42337092610642</v>
+        <v>2.239527215308622</v>
       </c>
       <c r="S163" s="1">
-        <v>2.353825609710979</v>
+        <v>1.960225936783108</v>
       </c>
     </row>
     <row r="164" spans="17:19" s="1" customFormat="1">
@@ -10276,10 +10276,10 @@
         <v>228</v>
       </c>
       <c r="R164" s="1">
-        <v>2.831368715220165</v>
+        <v>2.590475703884216</v>
       </c>
       <c r="S164" s="1">
-        <v>9.44732900767443</v>
+        <v>7.955599152132302</v>
       </c>
     </row>
     <row r="165" spans="17:19" s="1" customFormat="1"/>
